--- a/examples/mouse/artifact/script/ScreenClick.xlsx
+++ b/examples/mouse/artifact/script/ScreenClick.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10708"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/tutorials/examples/mouse/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47295E67-27DC-024A-8982-76A24CDD18D2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{47295E67-27DC-024A-8982-76A24CDD18D2}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="21020" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" tabRatio="500" windowHeight="21020" windowWidth="51200" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="460" firstSheet="1"/>
   </bookViews>
   <sheets>
-    <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
-    <sheet name="Scenario" sheetId="2" r:id="rId2"/>
+    <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
+    <sheet name="Scenario" r:id="rId2" sheetId="2"/>
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="576">
   <si>
     <t>description</t>
   </si>
@@ -1809,7 +1809,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1894,8 +1895,109 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="31">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1914,8 +2016,161 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -1953,152 +2208,526 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+  <cellXfs count="54">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="10" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="9" numFmtId="49" xfId="2">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="11" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="6" numFmtId="49" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="14" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="26" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="34" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="34" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="1"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="3"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -2132,7 +2761,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <mruColors>
       <color rgb="FFF8F7F9"/>
@@ -2157,10 +2786,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2195,7 +2824,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -2230,7 +2859,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -2324,21 +2953,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2355,7 +2984,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2407,26 +3036,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE129"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AF129"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" tabSelected="false">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="18" width="8.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="18" customWidth="true" width="8.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2521,7 +3150,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>366</v>
       </c>
@@ -2616,7 +3245,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>450</v>
       </c>
@@ -2702,7 +3331,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>471</v>
       </c>
@@ -2785,7 +3414,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -2859,7 +3488,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -2927,7 +3556,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -2989,7 +3618,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -3045,7 +3674,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -3092,7 +3721,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>343</v>
       </c>
@@ -3133,7 +3762,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -3171,7 +3800,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" t="s">
         <v>329</v>
       </c>
@@ -3209,7 +3838,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -3244,7 +3873,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" t="s">
         <v>502</v>
       </c>
@@ -3279,7 +3908,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15" t="s">
         <v>472</v>
       </c>
@@ -3311,7 +3940,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16" t="s">
         <v>192</v>
       </c>
@@ -3343,7 +3972,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" t="s">
         <v>50</v>
       </c>
@@ -3369,7 +3998,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18" t="s">
         <v>235</v>
       </c>
@@ -3389,7 +4018,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="A19" t="s">
         <v>51</v>
       </c>
@@ -3409,7 +4038,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="A20" t="s">
         <v>391</v>
       </c>
@@ -3429,7 +4058,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="A21" t="s">
         <v>407</v>
       </c>
@@ -3449,7 +4078,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="22">
       <c r="A22" t="s">
         <v>408</v>
       </c>
@@ -3469,7 +4098,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="23">
       <c r="A23" t="s">
         <v>352</v>
       </c>
@@ -3489,7 +4118,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="24">
       <c r="A24" t="s">
         <v>392</v>
       </c>
@@ -3509,7 +4138,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="25">
       <c r="A25" t="s">
         <v>533</v>
       </c>
@@ -3529,7 +4158,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="26">
       <c r="A26" t="s">
         <v>52</v>
       </c>
@@ -3549,7 +4178,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="27">
       <c r="A27" t="s">
         <v>53</v>
       </c>
@@ -3569,7 +4198,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="28">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -3586,7 +4215,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="29">
       <c r="A29" t="s">
         <v>55</v>
       </c>
@@ -3603,7 +4232,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="30">
       <c r="A30" t="s">
         <v>409</v>
       </c>
@@ -3617,7 +4246,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="31">
       <c r="A31" t="s">
         <v>223</v>
       </c>
@@ -3631,7 +4260,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="32">
       <c r="E32" t="s">
         <v>62</v>
       </c>
@@ -3642,7 +4271,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="33" spans="5:26" x14ac:dyDescent="0.2">
+    <row r="33">
       <c r="E33" t="s">
         <v>63</v>
       </c>
@@ -3653,7 +4282,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="34" spans="5:26" x14ac:dyDescent="0.2">
+    <row r="34">
       <c r="E34" t="s">
         <v>64</v>
       </c>
@@ -3664,7 +4293,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="35" spans="5:26" x14ac:dyDescent="0.2">
+    <row r="35">
       <c r="E35" t="s">
         <v>65</v>
       </c>
@@ -3675,7 +4304,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="36" spans="5:26" x14ac:dyDescent="0.2">
+    <row r="36">
       <c r="E36" t="s">
         <v>66</v>
       </c>
@@ -3686,7 +4315,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="37" spans="5:26" x14ac:dyDescent="0.2">
+    <row r="37">
       <c r="E37" t="s">
         <v>67</v>
       </c>
@@ -3697,7 +4326,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="38" spans="5:26" x14ac:dyDescent="0.2">
+    <row r="38">
       <c r="E38" t="s">
         <v>68</v>
       </c>
@@ -3708,7 +4337,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="39" spans="5:26" x14ac:dyDescent="0.2">
+    <row r="39">
       <c r="E39" t="s">
         <v>69</v>
       </c>
@@ -3719,7 +4348,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="40" spans="5:26" x14ac:dyDescent="0.2">
+    <row r="40">
       <c r="G40" t="s">
         <v>76</v>
       </c>
@@ -3727,7 +4356,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="41" spans="5:26" x14ac:dyDescent="0.2">
+    <row r="41">
       <c r="G41" t="s">
         <v>208</v>
       </c>
@@ -3735,7 +4364,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="42" spans="5:26" x14ac:dyDescent="0.2">
+    <row r="42">
       <c r="G42" t="s">
         <v>536</v>
       </c>
@@ -3743,7 +4372,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="43" spans="5:26" x14ac:dyDescent="0.2">
+    <row r="43">
       <c r="G43" t="s">
         <v>285</v>
       </c>
@@ -3751,7 +4380,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="44" spans="5:26" x14ac:dyDescent="0.2">
+    <row r="44">
       <c r="G44" t="s">
         <v>296</v>
       </c>
@@ -3759,7 +4388,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="45" spans="5:26" x14ac:dyDescent="0.2">
+    <row r="45">
       <c r="G45" t="s">
         <v>297</v>
       </c>
@@ -3767,7 +4396,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="46" spans="5:26" x14ac:dyDescent="0.2">
+    <row r="46">
       <c r="G46" t="s">
         <v>339</v>
       </c>
@@ -3775,7 +4404,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="47" spans="5:26" x14ac:dyDescent="0.2">
+    <row r="47">
       <c r="G47" t="s">
         <v>338</v>
       </c>
@@ -3783,7 +4412,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="48" spans="5:26" x14ac:dyDescent="0.2">
+    <row r="48">
       <c r="G48" t="s">
         <v>207</v>
       </c>
@@ -3791,7 +4420,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="49" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="49">
       <c r="G49" t="s">
         <v>316</v>
       </c>
@@ -3799,7 +4428,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="50">
       <c r="G50" t="s">
         <v>335</v>
       </c>
@@ -3807,7 +4436,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="51" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="51">
       <c r="G51" t="s">
         <v>363</v>
       </c>
@@ -3815,7 +4444,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="52" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="52">
       <c r="G52" t="s">
         <v>298</v>
       </c>
@@ -3823,7 +4452,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="53" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="53">
       <c r="G53" t="s">
         <v>351</v>
       </c>
@@ -3831,7 +4460,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="54" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="54">
       <c r="G54" t="s">
         <v>327</v>
       </c>
@@ -3839,7 +4468,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="55" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="55">
       <c r="G55" t="s">
         <v>264</v>
       </c>
@@ -3847,7 +4476,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="56" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="56">
       <c r="G56" t="s">
         <v>288</v>
       </c>
@@ -3855,7 +4484,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="57" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="57">
       <c r="G57" t="s">
         <v>289</v>
       </c>
@@ -3863,7 +4492,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="58" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="58">
       <c r="G58" t="s">
         <v>537</v>
       </c>
@@ -3871,7 +4500,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="59" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="59">
       <c r="G59" t="s">
         <v>290</v>
       </c>
@@ -3879,7 +4508,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="60" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="60">
       <c r="G60" t="s">
         <v>299</v>
       </c>
@@ -3887,7 +4516,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="61" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="61">
       <c r="G61" t="s">
         <v>308</v>
       </c>
@@ -3895,7 +4524,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="62" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="62">
       <c r="G62" t="s">
         <v>333</v>
       </c>
@@ -3903,7 +4532,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="63" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="63">
       <c r="G63" t="s">
         <v>305</v>
       </c>
@@ -3911,7 +4540,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="64" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="64">
       <c r="G64" t="s">
         <v>306</v>
       </c>
@@ -3919,7 +4548,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="65" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="65">
       <c r="G65" t="s">
         <v>364</v>
       </c>
@@ -3927,7 +4556,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="66" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="66">
       <c r="G66" t="s">
         <v>365</v>
       </c>
@@ -3935,7 +4564,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="67" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="67">
       <c r="G67" t="s">
         <v>341</v>
       </c>
@@ -3943,7 +4572,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="68" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="68">
       <c r="G68" t="s">
         <v>309</v>
       </c>
@@ -3951,7 +4580,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="69" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="69">
       <c r="G69" t="s">
         <v>265</v>
       </c>
@@ -3959,7 +4588,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="70" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="70">
       <c r="G70" t="s">
         <v>520</v>
       </c>
@@ -3967,7 +4596,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="71" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="71">
       <c r="G71" t="s">
         <v>310</v>
       </c>
@@ -3975,7 +4604,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="72" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="72">
       <c r="G72" t="s">
         <v>405</v>
       </c>
@@ -3983,7 +4612,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="73" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="73">
       <c r="G73" t="s">
         <v>300</v>
       </c>
@@ -3991,7 +4620,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="74" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="74">
       <c r="G74" t="s">
         <v>406</v>
       </c>
@@ -3999,7 +4628,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="75" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="75">
       <c r="G75" t="s">
         <v>258</v>
       </c>
@@ -4007,7 +4636,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="76" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="76">
       <c r="G76" t="s">
         <v>505</v>
       </c>
@@ -4015,7 +4644,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="77" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="77">
       <c r="G77" t="s">
         <v>340</v>
       </c>
@@ -4023,7 +4652,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="78" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="78">
       <c r="G78" t="s">
         <v>276</v>
       </c>
@@ -4031,7 +4660,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="79" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="79">
       <c r="G79" t="s">
         <v>282</v>
       </c>
@@ -4039,7 +4668,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="80" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="80">
       <c r="G80" t="s">
         <v>287</v>
       </c>
@@ -4047,7 +4676,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="81" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="81">
       <c r="G81" t="s">
         <v>424</v>
       </c>
@@ -4055,7 +4684,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="82" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="82">
       <c r="G82" t="s">
         <v>328</v>
       </c>
@@ -4063,7 +4692,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="83" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="83">
       <c r="G83" t="s">
         <v>266</v>
       </c>
@@ -4071,7 +4700,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="84" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="84">
       <c r="G84" t="s">
         <v>277</v>
       </c>
@@ -4079,7 +4708,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="85" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="85">
       <c r="G85" t="s">
         <v>283</v>
       </c>
@@ -4087,7 +4716,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="86" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="86">
       <c r="G86" t="s">
         <v>272</v>
       </c>
@@ -4095,7 +4724,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="87" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="87">
       <c r="G87" t="s">
         <v>523</v>
       </c>
@@ -4103,7 +4732,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="88" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="88">
       <c r="G88" t="s">
         <v>267</v>
       </c>
@@ -4111,7 +4740,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="89" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="89">
       <c r="G89" t="s">
         <v>284</v>
       </c>
@@ -4119,7 +4748,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="90" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="90">
       <c r="G90" t="s">
         <v>268</v>
       </c>
@@ -4127,7 +4756,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="91" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="91">
       <c r="G91" t="s">
         <v>269</v>
       </c>
@@ -4135,7 +4764,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="92" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="92">
       <c r="G92" t="s">
         <v>301</v>
       </c>
@@ -4143,7 +4772,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="93" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="93">
       <c r="G93" t="s">
         <v>307</v>
       </c>
@@ -4151,7 +4780,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="94" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="94">
       <c r="G94" t="s">
         <v>291</v>
       </c>
@@ -4159,7 +4788,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="95" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="95">
       <c r="G95" t="s">
         <v>336</v>
       </c>
@@ -4167,7 +4796,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="96" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="96">
       <c r="G96" t="s">
         <v>273</v>
       </c>
@@ -4175,7 +4804,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="97" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="97">
       <c r="G97" t="s">
         <v>274</v>
       </c>
@@ -4183,197 +4812,197 @@
         <v>201</v>
       </c>
     </row>
-    <row r="98" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="98">
       <c r="Z98" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="99" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="99">
       <c r="Z99" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="100" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="100">
       <c r="Z100" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="101" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="101">
       <c r="Z101" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="102" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="102">
       <c r="Z102" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="103" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="103">
       <c r="Z103" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="104" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="104">
       <c r="Z104" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="105" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="105">
       <c r="Z105" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="106" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="106">
       <c r="Z106" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="107" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="107">
       <c r="Z107" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="108" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="108">
       <c r="Z108" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="109" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="109">
       <c r="Z109" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="110" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="110">
       <c r="Z110" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="111" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="111">
       <c r="Z111" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="112" spans="7:26" x14ac:dyDescent="0.2">
+    <row r="112">
       <c r="Z112" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="113" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="113">
       <c r="Z113" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="114" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="114">
       <c r="Z114" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="115" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="115">
       <c r="Z115" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="116" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="116">
       <c r="Z116" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="117" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="117">
       <c r="Z117" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="118" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="118">
       <c r="Z118" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="119" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="119">
       <c r="Z119" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="120" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="120">
       <c r="Z120" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="121" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="121">
       <c r="Z121" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="122" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="122">
       <c r="Z122" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="123" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="123">
       <c r="Z123" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="124" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="124">
       <c r="Z124" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="125" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="125">
       <c r="Z125" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="126" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="126">
       <c r="Z126" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="127" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="127">
       <c r="Z127" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="128" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="128">
       <c r="Z128" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="129" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="129">
       <c r="Z129" t="s">
         <v>166</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O103"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:P103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="true" workbookViewId="0" zoomScale="100">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
+      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.5" style="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="45.1640625" style="9" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.6640625" style="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="34.83203125" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="9" width="24.33203125" style="10" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="43.1640625" style="23" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.6640625" style="11" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="16" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="17" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19" style="16" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.83203125" style="11" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.83203125" style="4" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="28" width="20.5" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="9" width="45.1640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="14" width="9.6640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="10" width="34.83203125" collapsed="true"/>
+    <col min="5" max="9" customWidth="true" style="10" width="24.33203125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="23" width="43.1640625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="11" width="1.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="16" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="17" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="16" width="19.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="11" width="49.83203125" collapsed="true"/>
+    <col min="16" max="16384" style="4" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -4404,7 +5033,7 @@
       <c r="N1" s="34"/>
       <c r="O1" s="35"/>
     </row>
-    <row r="2" spans="1:15" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="93" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>538</v>
       </c>
@@ -4425,7 +5054,7 @@
       <c r="N2" s="37"/>
       <c r="O2" s="37"/>
     </row>
-    <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="10" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>
       <c r="B3" s="5"/>
       <c r="C3" s="12"/>
@@ -4442,7 +5071,7 @@
       <c r="N3" s="15"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" s="6" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="24" r="4" s="6" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>217</v>
       </c>
@@ -4487,7 +5116,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
         <v>548</v>
       </c>
@@ -4512,7 +5141,7 @@
       <c r="N5" s="15"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="27"/>
       <c r="B6" s="5"/>
       <c r="C6" s="13" t="s">
@@ -4533,7 +5162,7 @@
       <c r="N6" s="15"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="27"/>
       <c r="B7" s="5"/>
       <c r="C7" s="13" t="s">
@@ -4564,7 +5193,7 @@
       <c r="N7" s="15"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="27"/>
       <c r="B8" s="5"/>
       <c r="C8" s="13" t="s">
@@ -4589,7 +5218,7 @@
       <c r="N8" s="15"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="27"/>
       <c r="B9" s="5" t="s">
         <v>575</v>
@@ -4616,7 +5245,7 @@
       <c r="N9" s="15"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
         <v>549</v>
       </c>
@@ -4641,7 +5270,7 @@
       <c r="N10" s="15"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="27"/>
       <c r="B11" s="5" t="s">
         <v>553</v>
@@ -4672,7 +5301,7 @@
       <c r="N11" s="15"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="27"/>
       <c r="B12" s="5"/>
       <c r="C12" s="13" t="s">
@@ -4697,7 +5326,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="27" t="s">
         <v>569</v>
       </c>
@@ -4732,7 +5361,7 @@
       <c r="N13" s="15"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="27"/>
       <c r="B14" s="5" t="s">
         <v>557</v>
@@ -4759,7 +5388,7 @@
       <c r="N14" s="15"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="27"/>
       <c r="B15" s="5" t="s">
         <v>572</v>
@@ -4788,7 +5417,7 @@
       <c r="N15" s="15"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="27"/>
       <c r="B16" s="5" t="s">
         <v>559</v>
@@ -4815,7 +5444,7 @@
       <c r="N16" s="15"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="27"/>
       <c r="B17" s="5" t="s">
         <v>557</v>
@@ -4842,7 +5471,7 @@
       <c r="N17" s="15"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="27"/>
       <c r="B18" s="5"/>
       <c r="C18" s="13" t="s">
@@ -4869,7 +5498,7 @@
       <c r="N18" s="15"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="27"/>
       <c r="B19" s="29" t="s">
         <v>568</v>
@@ -4898,7 +5527,7 @@
       <c r="N19" s="15"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="27"/>
       <c r="B20" s="5"/>
       <c r="C20" s="13" t="s">
@@ -4923,7 +5552,7 @@
       <c r="N20" s="15"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="27"/>
       <c r="B21" s="5"/>
       <c r="C21" s="13" t="s">
@@ -4948,7 +5577,7 @@
       <c r="N21" s="15"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="27"/>
       <c r="B22" s="5"/>
       <c r="C22" s="13"/>
@@ -4965,7 +5594,7 @@
       <c r="N22" s="15"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="27"/>
       <c r="B23" s="5"/>
       <c r="C23" s="13"/>
@@ -4982,7 +5611,7 @@
       <c r="N23" s="15"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="27"/>
       <c r="B24" s="5"/>
       <c r="C24" s="13"/>
@@ -4999,7 +5628,7 @@
       <c r="N24" s="15"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="27"/>
       <c r="B25" s="5"/>
       <c r="C25" s="13"/>
@@ -5016,7 +5645,7 @@
       <c r="N25" s="15"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="27"/>
       <c r="B26" s="5"/>
       <c r="C26" s="13"/>
@@ -5033,7 +5662,7 @@
       <c r="N26" s="15"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="27"/>
       <c r="B27" s="5"/>
       <c r="C27" s="13"/>
@@ -5050,7 +5679,7 @@
       <c r="N27" s="15"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="27"/>
       <c r="B28" s="5"/>
       <c r="C28" s="13"/>
@@ -5067,7 +5696,7 @@
       <c r="N28" s="15"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="27"/>
       <c r="B29" s="5"/>
       <c r="C29" s="13"/>
@@ -5084,7 +5713,7 @@
       <c r="N29" s="15"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="27"/>
       <c r="B30" s="5"/>
       <c r="C30" s="13"/>
@@ -5101,7 +5730,7 @@
       <c r="N30" s="15"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="27"/>
       <c r="B31" s="8"/>
       <c r="C31" s="13"/>
@@ -5118,7 +5747,7 @@
       <c r="N31" s="15"/>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="27"/>
       <c r="B32" s="5"/>
       <c r="C32" s="13"/>
@@ -5135,7 +5764,7 @@
       <c r="N32" s="15"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="27"/>
       <c r="B33" s="5"/>
       <c r="C33" s="13"/>
@@ -5152,7 +5781,7 @@
       <c r="N33" s="15"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="27"/>
       <c r="B34" s="5"/>
       <c r="C34" s="13"/>
@@ -5169,7 +5798,7 @@
       <c r="N34" s="15"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="27"/>
       <c r="B35" s="5"/>
       <c r="C35" s="13"/>
@@ -5186,7 +5815,7 @@
       <c r="N35" s="15"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="27"/>
       <c r="B36" s="5"/>
       <c r="C36" s="13"/>
@@ -5203,7 +5832,7 @@
       <c r="N36" s="15"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="27"/>
       <c r="B37" s="5"/>
       <c r="C37" s="13"/>
@@ -5220,7 +5849,7 @@
       <c r="N37" s="15"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="27"/>
       <c r="B38" s="5"/>
       <c r="C38" s="13"/>
@@ -5237,7 +5866,7 @@
       <c r="N38" s="15"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="27"/>
       <c r="B39" s="5"/>
       <c r="C39" s="13"/>
@@ -5254,7 +5883,7 @@
       <c r="N39" s="15"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="27"/>
       <c r="B40" s="5"/>
       <c r="C40" s="13"/>
@@ -5271,7 +5900,7 @@
       <c r="N40" s="15"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="27"/>
       <c r="B41" s="5"/>
       <c r="C41" s="13"/>
@@ -5288,7 +5917,7 @@
       <c r="N41" s="15"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="27"/>
       <c r="B42" s="5"/>
       <c r="C42" s="13"/>
@@ -5305,7 +5934,7 @@
       <c r="N42" s="15"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="27"/>
       <c r="B43" s="5"/>
       <c r="C43" s="13"/>
@@ -5322,7 +5951,7 @@
       <c r="N43" s="15"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="27"/>
       <c r="B44" s="5"/>
       <c r="C44" s="13"/>
@@ -5339,7 +5968,7 @@
       <c r="N44" s="15"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="27"/>
       <c r="B45" s="5"/>
       <c r="C45" s="13"/>
@@ -5356,7 +5985,7 @@
       <c r="N45" s="15"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="27"/>
       <c r="B46" s="5"/>
       <c r="C46" s="13"/>
@@ -5373,7 +6002,7 @@
       <c r="N46" s="15"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="27"/>
       <c r="B47" s="5"/>
       <c r="C47" s="13"/>
@@ -5390,7 +6019,7 @@
       <c r="N47" s="15"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="27"/>
       <c r="B48" s="5"/>
       <c r="C48" s="13"/>
@@ -5407,7 +6036,7 @@
       <c r="N48" s="15"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="27"/>
       <c r="B49" s="5"/>
       <c r="C49" s="13"/>
@@ -5424,7 +6053,7 @@
       <c r="N49" s="15"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="27"/>
       <c r="B50" s="5"/>
       <c r="C50" s="13"/>
@@ -5441,7 +6070,7 @@
       <c r="N50" s="15"/>
       <c r="O50" s="3"/>
     </row>
-    <row r="51" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="27"/>
       <c r="B51" s="5"/>
       <c r="C51" s="13"/>
@@ -5458,7 +6087,7 @@
       <c r="N51" s="15"/>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="27"/>
       <c r="B52" s="5"/>
       <c r="C52" s="13"/>
@@ -5475,7 +6104,7 @@
       <c r="N52" s="15"/>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="27"/>
       <c r="B53" s="5"/>
       <c r="C53" s="13"/>
@@ -5492,7 +6121,7 @@
       <c r="N53" s="15"/>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="27"/>
       <c r="B54" s="5"/>
       <c r="C54" s="13"/>
@@ -5509,7 +6138,7 @@
       <c r="N54" s="15"/>
       <c r="O54" s="3"/>
     </row>
-    <row r="55" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="27"/>
       <c r="B55" s="5"/>
       <c r="C55" s="13"/>
@@ -5526,7 +6155,7 @@
       <c r="N55" s="15"/>
       <c r="O55" s="3"/>
     </row>
-    <row r="56" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="27"/>
       <c r="B56" s="5"/>
       <c r="C56" s="13"/>
@@ -5543,7 +6172,7 @@
       <c r="N56" s="15"/>
       <c r="O56" s="3"/>
     </row>
-    <row r="57" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="27"/>
       <c r="B57" s="5"/>
       <c r="C57" s="13"/>
@@ -5560,7 +6189,7 @@
       <c r="N57" s="15"/>
       <c r="O57" s="3"/>
     </row>
-    <row r="58" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="27"/>
       <c r="B58" s="5"/>
       <c r="C58" s="13"/>
@@ -5577,7 +6206,7 @@
       <c r="N58" s="15"/>
       <c r="O58" s="3"/>
     </row>
-    <row r="59" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="27"/>
       <c r="B59" s="5"/>
       <c r="C59" s="13"/>
@@ -5594,7 +6223,7 @@
       <c r="N59" s="15"/>
       <c r="O59" s="3"/>
     </row>
-    <row r="60" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="27"/>
       <c r="B60" s="5"/>
       <c r="C60" s="13"/>
@@ -5611,7 +6240,7 @@
       <c r="N60" s="15"/>
       <c r="O60" s="3"/>
     </row>
-    <row r="61" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="27"/>
       <c r="B61" s="5"/>
       <c r="C61" s="13"/>
@@ -5628,7 +6257,7 @@
       <c r="N61" s="15"/>
       <c r="O61" s="3"/>
     </row>
-    <row r="62" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="27"/>
       <c r="B62" s="5"/>
       <c r="C62" s="13"/>
@@ -5645,7 +6274,7 @@
       <c r="N62" s="15"/>
       <c r="O62" s="3"/>
     </row>
-    <row r="63" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="27"/>
       <c r="B63" s="5"/>
       <c r="C63" s="13"/>
@@ -5662,7 +6291,7 @@
       <c r="N63" s="15"/>
       <c r="O63" s="3"/>
     </row>
-    <row r="64" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="27"/>
       <c r="B64" s="5"/>
       <c r="C64" s="13"/>
@@ -5679,7 +6308,7 @@
       <c r="N64" s="15"/>
       <c r="O64" s="3"/>
     </row>
-    <row r="65" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="27"/>
       <c r="B65" s="5"/>
       <c r="C65" s="13"/>
@@ -5696,7 +6325,7 @@
       <c r="N65" s="15"/>
       <c r="O65" s="3"/>
     </row>
-    <row r="66" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="27"/>
       <c r="B66" s="5"/>
       <c r="C66" s="13"/>
@@ -5713,7 +6342,7 @@
       <c r="N66" s="15"/>
       <c r="O66" s="3"/>
     </row>
-    <row r="67" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="27"/>
       <c r="B67" s="5"/>
       <c r="C67" s="13"/>
@@ -5730,7 +6359,7 @@
       <c r="N67" s="15"/>
       <c r="O67" s="3"/>
     </row>
-    <row r="68" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" s="27"/>
       <c r="B68" s="5"/>
       <c r="C68" s="13"/>
@@ -5747,7 +6376,7 @@
       <c r="N68" s="15"/>
       <c r="O68" s="3"/>
     </row>
-    <row r="69" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" s="27"/>
       <c r="B69" s="5"/>
       <c r="C69" s="13"/>
@@ -5764,7 +6393,7 @@
       <c r="N69" s="15"/>
       <c r="O69" s="3"/>
     </row>
-    <row r="70" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" s="27"/>
       <c r="B70" s="5"/>
       <c r="C70" s="13"/>
@@ -5781,7 +6410,7 @@
       <c r="N70" s="15"/>
       <c r="O70" s="3"/>
     </row>
-    <row r="71" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" s="27"/>
       <c r="B71" s="5"/>
       <c r="C71" s="13"/>
@@ -5798,7 +6427,7 @@
       <c r="N71" s="15"/>
       <c r="O71" s="3"/>
     </row>
-    <row r="72" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" s="27"/>
       <c r="B72" s="5"/>
       <c r="C72" s="13"/>
@@ -5815,7 +6444,7 @@
       <c r="N72" s="15"/>
       <c r="O72" s="3"/>
     </row>
-    <row r="73" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" s="27"/>
       <c r="B73" s="5"/>
       <c r="C73" s="13"/>
@@ -5832,7 +6461,7 @@
       <c r="N73" s="15"/>
       <c r="O73" s="3"/>
     </row>
-    <row r="74" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" s="27"/>
       <c r="B74" s="5"/>
       <c r="C74" s="13"/>
@@ -5849,7 +6478,7 @@
       <c r="N74" s="15"/>
       <c r="O74" s="3"/>
     </row>
-    <row r="75" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="27"/>
       <c r="B75" s="5"/>
       <c r="C75" s="13"/>
@@ -5866,7 +6495,7 @@
       <c r="N75" s="15"/>
       <c r="O75" s="3"/>
     </row>
-    <row r="76" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="27"/>
       <c r="B76" s="5"/>
       <c r="C76" s="13"/>
@@ -5883,7 +6512,7 @@
       <c r="N76" s="15"/>
       <c r="O76" s="3"/>
     </row>
-    <row r="77" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="27"/>
       <c r="B77" s="5"/>
       <c r="C77" s="13"/>
@@ -5900,7 +6529,7 @@
       <c r="N77" s="15"/>
       <c r="O77" s="3"/>
     </row>
-    <row r="78" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="27"/>
       <c r="B78" s="5"/>
       <c r="C78" s="13"/>
@@ -5917,7 +6546,7 @@
       <c r="N78" s="15"/>
       <c r="O78" s="3"/>
     </row>
-    <row r="79" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="27"/>
       <c r="B79" s="5"/>
       <c r="C79" s="13"/>
@@ -5934,7 +6563,7 @@
       <c r="N79" s="15"/>
       <c r="O79" s="3"/>
     </row>
-    <row r="80" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="27"/>
       <c r="B80" s="5"/>
       <c r="C80" s="13"/>
@@ -5951,7 +6580,7 @@
       <c r="N80" s="15"/>
       <c r="O80" s="3"/>
     </row>
-    <row r="81" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="27"/>
       <c r="B81" s="5"/>
       <c r="C81" s="13"/>
@@ -5968,7 +6597,7 @@
       <c r="N81" s="15"/>
       <c r="O81" s="3"/>
     </row>
-    <row r="82" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" s="27"/>
       <c r="B82" s="5"/>
       <c r="C82" s="13"/>
@@ -5985,7 +6614,7 @@
       <c r="N82" s="15"/>
       <c r="O82" s="3"/>
     </row>
-    <row r="83" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" s="27"/>
       <c r="B83" s="5"/>
       <c r="C83" s="13"/>
@@ -6002,7 +6631,7 @@
       <c r="N83" s="15"/>
       <c r="O83" s="3"/>
     </row>
-    <row r="84" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" s="27"/>
       <c r="B84" s="5"/>
       <c r="C84" s="13"/>
@@ -6019,7 +6648,7 @@
       <c r="N84" s="15"/>
       <c r="O84" s="3"/>
     </row>
-    <row r="85" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="27"/>
       <c r="B85" s="5"/>
       <c r="C85" s="13"/>
@@ -6036,7 +6665,7 @@
       <c r="N85" s="15"/>
       <c r="O85" s="3"/>
     </row>
-    <row r="86" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" s="27"/>
       <c r="B86" s="5"/>
       <c r="C86" s="13"/>
@@ -6053,7 +6682,7 @@
       <c r="N86" s="15"/>
       <c r="O86" s="3"/>
     </row>
-    <row r="87" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" s="27"/>
       <c r="B87" s="5"/>
       <c r="C87" s="13"/>
@@ -6070,7 +6699,7 @@
       <c r="N87" s="15"/>
       <c r="O87" s="3"/>
     </row>
-    <row r="88" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" s="27"/>
       <c r="B88" s="5"/>
       <c r="C88" s="13"/>
@@ -6087,7 +6716,7 @@
       <c r="N88" s="15"/>
       <c r="O88" s="3"/>
     </row>
-    <row r="89" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" s="27"/>
       <c r="B89" s="5"/>
       <c r="C89" s="13"/>
@@ -6104,7 +6733,7 @@
       <c r="N89" s="15"/>
       <c r="O89" s="3"/>
     </row>
-    <row r="90" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" s="27"/>
       <c r="B90" s="5"/>
       <c r="C90" s="13"/>
@@ -6121,7 +6750,7 @@
       <c r="N90" s="15"/>
       <c r="O90" s="3"/>
     </row>
-    <row r="91" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" s="27"/>
       <c r="B91" s="5"/>
       <c r="C91" s="13"/>
@@ -6138,7 +6767,7 @@
       <c r="N91" s="15"/>
       <c r="O91" s="3"/>
     </row>
-    <row r="92" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" s="27"/>
       <c r="B92" s="5"/>
       <c r="C92" s="13"/>
@@ -6155,7 +6784,7 @@
       <c r="N92" s="15"/>
       <c r="O92" s="3"/>
     </row>
-    <row r="93" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" s="27"/>
       <c r="B93" s="5"/>
       <c r="C93" s="13"/>
@@ -6172,7 +6801,7 @@
       <c r="N93" s="15"/>
       <c r="O93" s="3"/>
     </row>
-    <row r="94" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" s="27"/>
       <c r="B94" s="5"/>
       <c r="C94" s="13"/>
@@ -6189,7 +6818,7 @@
       <c r="N94" s="15"/>
       <c r="O94" s="3"/>
     </row>
-    <row r="95" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" s="27"/>
       <c r="B95" s="5"/>
       <c r="C95" s="13"/>
@@ -6206,7 +6835,7 @@
       <c r="N95" s="15"/>
       <c r="O95" s="3"/>
     </row>
-    <row r="96" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" s="27"/>
       <c r="B96" s="5"/>
       <c r="C96" s="13"/>
@@ -6223,7 +6852,7 @@
       <c r="N96" s="15"/>
       <c r="O96" s="3"/>
     </row>
-    <row r="97" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" s="27"/>
       <c r="B97" s="5"/>
       <c r="C97" s="13"/>
@@ -6240,7 +6869,7 @@
       <c r="N97" s="15"/>
       <c r="O97" s="3"/>
     </row>
-    <row r="98" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" s="27"/>
       <c r="B98" s="5"/>
       <c r="C98" s="13"/>
@@ -6257,7 +6886,7 @@
       <c r="N98" s="15"/>
       <c r="O98" s="3"/>
     </row>
-    <row r="99" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" s="27"/>
       <c r="B99" s="5"/>
       <c r="C99" s="13"/>
@@ -6274,7 +6903,7 @@
       <c r="N99" s="15"/>
       <c r="O99" s="3"/>
     </row>
-    <row r="100" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" s="27"/>
       <c r="B100" s="5"/>
       <c r="C100" s="13"/>
@@ -6291,7 +6920,7 @@
       <c r="N100" s="15"/>
       <c r="O100" s="3"/>
     </row>
-    <row r="101" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" s="27"/>
       <c r="B101" s="5"/>
       <c r="C101" s="13"/>
@@ -6308,7 +6937,7 @@
       <c r="N101" s="15"/>
       <c r="O101" s="3"/>
     </row>
-    <row r="102" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" s="27"/>
       <c r="B102" s="5"/>
       <c r="C102" s="13"/>
@@ -6325,7 +6954,7 @@
       <c r="N102" s="15"/>
       <c r="O102" s="3"/>
     </row>
-    <row r="103" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" s="27"/>
       <c r="B103" s="5"/>
       <c r="C103" s="13"/>
@@ -6343,7 +6972,7 @@
       <c r="O103" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
@@ -6351,24 +6980,24 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="2" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="2" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="7" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="1" operator="beginsWith" priority="7" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="9" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="0" operator="beginsWith" priority="9" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C103" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C103" type="list" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D103" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D103" type="list" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/examples/mouse/artifact/script/ScreenClick.xlsx
+++ b/examples/mouse/artifact/script/ScreenClick.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr documentId="13_ncr:1_{47295E67-27DC-024A-8982-76A24CDD18D2}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43"/>
   <bookViews>
-    <workbookView activeTab="1" tabRatio="500" windowHeight="21020" windowWidth="51200" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="460" firstSheet="1"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="21020" windowWidth="51200" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="460"/>
   </bookViews>
   <sheets>
     <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
@@ -30,7 +30,7 @@
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$17</definedName>
+    <definedName name="json">'#system'!$M$2:$M$18</definedName>
     <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
@@ -45,14 +45,14 @@
     <definedName name="sound">'#system'!$V$2:$V$5</definedName>
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$31</definedName>
+    <definedName name="target">'#system'!$A$2:$A$30</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$129</definedName>
-    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
-    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
-    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
+    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
+    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1766" uniqueCount="577">
   <si>
     <t>description</t>
   </si>
@@ -1803,6 +1803,9 @@
   </si>
   <si>
     <t>give it time for DevTools to show up</t>
+  </si>
+  <si>
+    <t>storeKeys(json,jsonpath,var)</t>
   </si>
 </sst>
 </file>
@@ -1810,7 +1813,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="44" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1996,8 +1999,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="31">
+  <fills count="58">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2169,8 +2273,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="35">
+  <borders count="67">
     <border>
       <left/>
       <right/>
@@ -2534,6 +2791,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -2541,7 +3124,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="70">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -2674,52 +3257,100 @@
     <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="10" fillId="6" fontId="12" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="14" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="14" fillId="9" fontId="14" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="12" fontId="15" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="15" fontId="16" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="18" fontId="18" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="26" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="26" fillId="21" fontId="20" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="12" fontId="21" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="34" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="34" fillId="24" fontId="22" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="34" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="34" fillId="24" fontId="23" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="24" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="27" fontId="25" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="26" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="30" fontId="27" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="36" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="39" borderId="50" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="42" borderId="54" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="48" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="39" borderId="62" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="51" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="51" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="54" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3044,9 +3675,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF129"/>
+  <dimension ref="A1:AE129"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -3129,24 +3760,21 @@
         <v>392</v>
       </c>
       <c r="Y1" t="s">
-        <v>533</v>
+        <v>52</v>
       </c>
       <c r="Z1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AA1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AB1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC1" t="s">
-        <v>55</v>
+        <v>409</v>
       </c>
       <c r="AD1" t="s">
-        <v>409</v>
-      </c>
-      <c r="AE1" t="s">
         <v>223</v>
       </c>
     </row>
@@ -3224,24 +3852,21 @@
         <v>402</v>
       </c>
       <c r="Y2" t="s">
-        <v>534</v>
+        <v>94</v>
       </c>
       <c r="Z2" t="s">
-        <v>94</v>
+        <v>167</v>
       </c>
       <c r="AA2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="AB2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="AC2" t="s">
-        <v>179</v>
+        <v>427</v>
       </c>
       <c r="AD2" t="s">
-        <v>427</v>
-      </c>
-      <c r="AE2" t="s">
         <v>494</v>
       </c>
     </row>
@@ -3312,22 +3937,22 @@
       <c r="X3" t="s">
         <v>403</v>
       </c>
+      <c r="Y3" t="s">
+        <v>95</v>
+      </c>
       <c r="Z3" t="s">
-        <v>95</v>
+        <v>168</v>
       </c>
       <c r="AA3" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="AB3" t="s">
-        <v>173</v>
+        <v>359</v>
       </c>
       <c r="AC3" t="s">
-        <v>359</v>
+        <v>180</v>
       </c>
       <c r="AD3" t="s">
-        <v>180</v>
-      </c>
-      <c r="AE3" t="s">
         <v>224</v>
       </c>
     </row>
@@ -3395,22 +4020,22 @@
       <c r="X4" t="s">
         <v>404</v>
       </c>
+      <c r="Y4" t="s">
+        <v>349</v>
+      </c>
       <c r="Z4" t="s">
-        <v>349</v>
+        <v>169</v>
       </c>
       <c r="AA4" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="AB4" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="AC4" t="s">
-        <v>180</v>
+        <v>419</v>
       </c>
       <c r="AD4" t="s">
-        <v>419</v>
-      </c>
-      <c r="AE4" t="s">
         <v>225</v>
       </c>
     </row>
@@ -3469,22 +4094,22 @@
       <c r="W5" t="s">
         <v>354</v>
       </c>
+      <c r="Y5" t="s">
+        <v>350</v>
+      </c>
       <c r="Z5" t="s">
-        <v>350</v>
+        <v>170</v>
       </c>
       <c r="AA5" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="AB5" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="AC5" t="s">
-        <v>181</v>
+        <v>420</v>
       </c>
       <c r="AD5" t="s">
-        <v>420</v>
-      </c>
-      <c r="AE5" t="s">
         <v>226</v>
       </c>
     </row>
@@ -3537,22 +4162,22 @@
       <c r="W6" t="s">
         <v>356</v>
       </c>
+      <c r="Y6" t="s">
+        <v>96</v>
+      </c>
       <c r="Z6" t="s">
-        <v>96</v>
+        <v>440</v>
       </c>
       <c r="AA6" t="s">
-        <v>440</v>
+        <v>176</v>
       </c>
       <c r="AB6" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="AC6" t="s">
-        <v>182</v>
+        <v>421</v>
       </c>
       <c r="AD6" t="s">
-        <v>421</v>
-      </c>
-      <c r="AE6" t="s">
         <v>227</v>
       </c>
     </row>
@@ -3599,22 +4224,22 @@
       <c r="W7" t="s">
         <v>355</v>
       </c>
+      <c r="Y7" t="s">
+        <v>97</v>
+      </c>
       <c r="Z7" t="s">
-        <v>97</v>
+        <v>441</v>
       </c>
       <c r="AA7" t="s">
-        <v>441</v>
+        <v>177</v>
       </c>
       <c r="AB7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="AC7" t="s">
-        <v>183</v>
+        <v>422</v>
       </c>
       <c r="AD7" t="s">
-        <v>422</v>
-      </c>
-      <c r="AE7" t="s">
         <v>524</v>
       </c>
     </row>
@@ -3655,22 +4280,22 @@
       <c r="W8" t="s">
         <v>357</v>
       </c>
+      <c r="Y8" t="s">
+        <v>98</v>
+      </c>
       <c r="Z8" t="s">
-        <v>98</v>
+        <v>171</v>
       </c>
       <c r="AA8" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="AB8" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="AC8" t="s">
-        <v>184</v>
+        <v>423</v>
       </c>
       <c r="AD8" t="s">
-        <v>423</v>
-      </c>
-      <c r="AE8" t="s">
         <v>525</v>
       </c>
     </row>
@@ -3711,13 +4336,13 @@
       <c r="W9" t="s">
         <v>358</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="Y9" t="s">
         <v>205</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AB9" t="s">
         <v>185</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AD9" t="s">
         <v>526</v>
       </c>
     </row>
@@ -3752,13 +4377,13 @@
       <c r="T10" t="s">
         <v>401</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="Y10" t="s">
         <v>253</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AB10" t="s">
         <v>186</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AD10" t="s">
         <v>228</v>
       </c>
     </row>
@@ -3790,13 +4415,13 @@
       <c r="R11" t="s">
         <v>244</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="Y11" t="s">
         <v>254</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AB11" t="s">
         <v>255</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AD11" t="s">
         <v>229</v>
       </c>
     </row>
@@ -3828,13 +4453,13 @@
       <c r="R12" t="s">
         <v>245</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="Y12" t="s">
         <v>99</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AB12" t="s">
         <v>187</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AD12" t="s">
         <v>230</v>
       </c>
     </row>
@@ -3863,13 +4488,13 @@
       <c r="R13" t="s">
         <v>250</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="Y13" t="s">
         <v>322</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AB13" t="s">
         <v>188</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AD13" t="s">
         <v>469</v>
       </c>
     </row>
@@ -3898,13 +4523,13 @@
       <c r="R14" t="s">
         <v>246</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="Y14" t="s">
         <v>100</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AB14" t="s">
         <v>189</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AD14" t="s">
         <v>495</v>
       </c>
     </row>
@@ -3930,13 +4555,13 @@
       <c r="R15" t="s">
         <v>247</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="Y15" t="s">
         <v>101</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AB15" t="s">
         <v>190</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AD15" t="s">
         <v>496</v>
       </c>
     </row>
@@ -3954,7 +4579,7 @@
         <v>79</v>
       </c>
       <c r="M16" t="s">
-        <v>39</v>
+        <v>576</v>
       </c>
       <c r="Q16" t="s">
         <v>487</v>
@@ -3962,13 +4587,13 @@
       <c r="R16" t="s">
         <v>248</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="Y16" t="s">
         <v>73</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AB16" t="s">
         <v>191</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AD16" t="s">
         <v>497</v>
       </c>
     </row>
@@ -3986,15 +4611,15 @@
         <v>80</v>
       </c>
       <c r="M17" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z17" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y17" t="s">
         <v>488</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AB17" t="s">
         <v>462</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AD17" t="s">
         <v>498</v>
       </c>
     </row>
@@ -4011,10 +4636,13 @@
       <c r="K18" t="s">
         <v>458</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="M18" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y18" t="s">
         <v>102</v>
       </c>
-      <c r="AE18" t="s">
+      <c r="AD18" t="s">
         <v>470</v>
       </c>
     </row>
@@ -4031,10 +4659,10 @@
       <c r="K19" t="s">
         <v>81</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="Y19" t="s">
         <v>103</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AD19" t="s">
         <v>499</v>
       </c>
     </row>
@@ -4051,10 +4679,10 @@
       <c r="K20" t="s">
         <v>82</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="Y20" t="s">
         <v>104</v>
       </c>
-      <c r="AE20" t="s">
+      <c r="AD20" t="s">
         <v>500</v>
       </c>
     </row>
@@ -4071,10 +4699,10 @@
       <c r="K21" t="s">
         <v>375</v>
       </c>
-      <c r="Z21" t="s">
+      <c r="Y21" t="s">
         <v>105</v>
       </c>
-      <c r="AE21" t="s">
+      <c r="AD21" t="s">
         <v>501</v>
       </c>
     </row>
@@ -4091,10 +4719,10 @@
       <c r="K22" t="s">
         <v>465</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="Y22" t="s">
         <v>489</v>
       </c>
-      <c r="AE22" t="s">
+      <c r="AD22" t="s">
         <v>231</v>
       </c>
     </row>
@@ -4111,10 +4739,10 @@
       <c r="K23" t="s">
         <v>43</v>
       </c>
-      <c r="Z23" t="s">
+      <c r="Y23" t="s">
         <v>106</v>
       </c>
-      <c r="AE23" t="s">
+      <c r="AD23" t="s">
         <v>527</v>
       </c>
     </row>
@@ -4131,16 +4759,16 @@
       <c r="K24" t="s">
         <v>387</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="Y24" t="s">
         <v>107</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AD24" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>533</v>
+        <v>52</v>
       </c>
       <c r="E25" t="s">
         <v>61</v>
@@ -4151,16 +4779,16 @@
       <c r="K25" t="s">
         <v>519</v>
       </c>
-      <c r="Z25" t="s">
+      <c r="Y25" t="s">
         <v>108</v>
       </c>
-      <c r="AE25" t="s">
+      <c r="AD25" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E26" t="s">
         <v>444</v>
@@ -4171,16 +4799,16 @@
       <c r="K26" t="s">
         <v>83</v>
       </c>
-      <c r="Z26" t="s">
+      <c r="Y26" t="s">
         <v>109</v>
       </c>
-      <c r="AE26" t="s">
+      <c r="AD26" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E27" t="s">
         <v>221</v>
@@ -4191,16 +4819,16 @@
       <c r="K27" t="s">
         <v>429</v>
       </c>
-      <c r="Z27" t="s">
+      <c r="Y27" t="s">
         <v>110</v>
       </c>
-      <c r="AE27" t="s">
+      <c r="AD27" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E28" t="s">
         <v>222</v>
@@ -4211,13 +4839,13 @@
       <c r="K28" t="s">
         <v>44</v>
       </c>
-      <c r="Z28" t="s">
+      <c r="Y28" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>409</v>
       </c>
       <c r="E29" t="s">
         <v>463</v>
@@ -4228,13 +4856,13 @@
       <c r="K29" t="s">
         <v>45</v>
       </c>
-      <c r="Z29" t="s">
+      <c r="Y29" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>409</v>
+        <v>223</v>
       </c>
       <c r="E30" t="s">
         <v>464</v>
@@ -4242,21 +4870,18 @@
       <c r="G30" t="s">
         <v>212</v>
       </c>
-      <c r="Z30" t="s">
+      <c r="Y30" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s">
-        <v>223</v>
-      </c>
       <c r="E31" t="s">
         <v>411</v>
       </c>
       <c r="G31" t="s">
         <v>271</v>
       </c>
-      <c r="Z31" t="s">
+      <c r="Y31" t="s">
         <v>113</v>
       </c>
     </row>
@@ -4267,7 +4892,7 @@
       <c r="G32" t="s">
         <v>281</v>
       </c>
-      <c r="Z32" t="s">
+      <c r="Y32" t="s">
         <v>114</v>
       </c>
     </row>
@@ -4278,7 +4903,7 @@
       <c r="G33" t="s">
         <v>504</v>
       </c>
-      <c r="Z33" t="s">
+      <c r="Y33" t="s">
         <v>115</v>
       </c>
     </row>
@@ -4289,7 +4914,7 @@
       <c r="G34" t="s">
         <v>256</v>
       </c>
-      <c r="Z34" t="s">
+      <c r="Y34" t="s">
         <v>116</v>
       </c>
     </row>
@@ -4300,7 +4925,7 @@
       <c r="G35" t="s">
         <v>326</v>
       </c>
-      <c r="Z35" t="s">
+      <c r="Y35" t="s">
         <v>206</v>
       </c>
     </row>
@@ -4311,7 +4936,7 @@
       <c r="G36" t="s">
         <v>303</v>
       </c>
-      <c r="Z36" t="s">
+      <c r="Y36" t="s">
         <v>117</v>
       </c>
     </row>
@@ -4322,7 +4947,7 @@
       <c r="G37" t="s">
         <v>257</v>
       </c>
-      <c r="Z37" t="s">
+      <c r="Y37" t="s">
         <v>334</v>
       </c>
     </row>
@@ -4333,7 +4958,7 @@
       <c r="G38" t="s">
         <v>304</v>
       </c>
-      <c r="Z38" t="s">
+      <c r="Y38" t="s">
         <v>433</v>
       </c>
     </row>
@@ -4344,7 +4969,7 @@
       <c r="G39" t="s">
         <v>263</v>
       </c>
-      <c r="Z39" t="s">
+      <c r="Y39" t="s">
         <v>522</v>
       </c>
     </row>
@@ -4352,7 +4977,7 @@
       <c r="G40" t="s">
         <v>76</v>
       </c>
-      <c r="Z40" t="s">
+      <c r="Y40" t="s">
         <v>388</v>
       </c>
     </row>
@@ -4360,7 +4985,7 @@
       <c r="G41" t="s">
         <v>208</v>
       </c>
-      <c r="Z41" t="s">
+      <c r="Y41" t="s">
         <v>118</v>
       </c>
     </row>
@@ -4368,7 +4993,7 @@
       <c r="G42" t="s">
         <v>536</v>
       </c>
-      <c r="Z42" t="s">
+      <c r="Y42" t="s">
         <v>119</v>
       </c>
     </row>
@@ -4376,7 +5001,7 @@
       <c r="G43" t="s">
         <v>285</v>
       </c>
-      <c r="Z43" t="s">
+      <c r="Y43" t="s">
         <v>120</v>
       </c>
     </row>
@@ -4384,7 +5009,7 @@
       <c r="G44" t="s">
         <v>296</v>
       </c>
-      <c r="Z44" t="s">
+      <c r="Y44" t="s">
         <v>121</v>
       </c>
     </row>
@@ -4392,7 +5017,7 @@
       <c r="G45" t="s">
         <v>297</v>
       </c>
-      <c r="Z45" t="s">
+      <c r="Y45" t="s">
         <v>122</v>
       </c>
     </row>
@@ -4400,7 +5025,7 @@
       <c r="G46" t="s">
         <v>339</v>
       </c>
-      <c r="Z46" t="s">
+      <c r="Y46" t="s">
         <v>123</v>
       </c>
     </row>
@@ -4408,7 +5033,7 @@
       <c r="G47" t="s">
         <v>338</v>
       </c>
-      <c r="Z47" t="s">
+      <c r="Y47" t="s">
         <v>434</v>
       </c>
     </row>
@@ -4416,7 +5041,7 @@
       <c r="G48" t="s">
         <v>207</v>
       </c>
-      <c r="Z48" t="s">
+      <c r="Y48" t="s">
         <v>209</v>
       </c>
     </row>
@@ -4424,7 +5049,7 @@
       <c r="G49" t="s">
         <v>316</v>
       </c>
-      <c r="Z49" t="s">
+      <c r="Y49" t="s">
         <v>75</v>
       </c>
     </row>
@@ -4432,7 +5057,7 @@
       <c r="G50" t="s">
         <v>335</v>
       </c>
-      <c r="Z50" t="s">
+      <c r="Y50" t="s">
         <v>531</v>
       </c>
     </row>
@@ -4440,7 +5065,7 @@
       <c r="G51" t="s">
         <v>363</v>
       </c>
-      <c r="Z51" t="s">
+      <c r="Y51" t="s">
         <v>124</v>
       </c>
     </row>
@@ -4448,7 +5073,7 @@
       <c r="G52" t="s">
         <v>298</v>
       </c>
-      <c r="Z52" t="s">
+      <c r="Y52" t="s">
         <v>125</v>
       </c>
     </row>
@@ -4456,7 +5081,7 @@
       <c r="G53" t="s">
         <v>351</v>
       </c>
-      <c r="Z53" t="s">
+      <c r="Y53" t="s">
         <v>126</v>
       </c>
     </row>
@@ -4464,7 +5089,7 @@
       <c r="G54" t="s">
         <v>327</v>
       </c>
-      <c r="Z54" t="s">
+      <c r="Y54" t="s">
         <v>490</v>
       </c>
     </row>
@@ -4472,7 +5097,7 @@
       <c r="G55" t="s">
         <v>264</v>
       </c>
-      <c r="Z55" t="s">
+      <c r="Y55" t="s">
         <v>459</v>
       </c>
     </row>
@@ -4480,7 +5105,7 @@
       <c r="G56" t="s">
         <v>288</v>
       </c>
-      <c r="Z56" t="s">
+      <c r="Y56" t="s">
         <v>127</v>
       </c>
     </row>
@@ -4488,7 +5113,7 @@
       <c r="G57" t="s">
         <v>289</v>
       </c>
-      <c r="Z57" t="s">
+      <c r="Y57" t="s">
         <v>342</v>
       </c>
     </row>
@@ -4496,7 +5121,7 @@
       <c r="G58" t="s">
         <v>537</v>
       </c>
-      <c r="Z58" t="s">
+      <c r="Y58" t="s">
         <v>460</v>
       </c>
     </row>
@@ -4504,7 +5129,7 @@
       <c r="G59" t="s">
         <v>290</v>
       </c>
-      <c r="Z59" t="s">
+      <c r="Y59" t="s">
         <v>128</v>
       </c>
     </row>
@@ -4512,7 +5137,7 @@
       <c r="G60" t="s">
         <v>299</v>
       </c>
-      <c r="Z60" t="s">
+      <c r="Y60" t="s">
         <v>129</v>
       </c>
     </row>
@@ -4520,7 +5145,7 @@
       <c r="G61" t="s">
         <v>308</v>
       </c>
-      <c r="Z61" t="s">
+      <c r="Y61" t="s">
         <v>130</v>
       </c>
     </row>
@@ -4528,7 +5153,7 @@
       <c r="G62" t="s">
         <v>333</v>
       </c>
-      <c r="Z62" t="s">
+      <c r="Y62" t="s">
         <v>131</v>
       </c>
     </row>
@@ -4536,7 +5161,7 @@
       <c r="G63" t="s">
         <v>305</v>
       </c>
-      <c r="Z63" t="s">
+      <c r="Y63" t="s">
         <v>132</v>
       </c>
     </row>
@@ -4544,7 +5169,7 @@
       <c r="G64" t="s">
         <v>306</v>
       </c>
-      <c r="Z64" t="s">
+      <c r="Y64" t="s">
         <v>133</v>
       </c>
     </row>
@@ -4552,7 +5177,7 @@
       <c r="G65" t="s">
         <v>364</v>
       </c>
-      <c r="Z65" t="s">
+      <c r="Y65" t="s">
         <v>134</v>
       </c>
     </row>
@@ -4560,7 +5185,7 @@
       <c r="G66" t="s">
         <v>365</v>
       </c>
-      <c r="Z66" t="s">
+      <c r="Y66" t="s">
         <v>435</v>
       </c>
     </row>
@@ -4568,7 +5193,7 @@
       <c r="G67" t="s">
         <v>341</v>
       </c>
-      <c r="Z67" t="s">
+      <c r="Y67" t="s">
         <v>468</v>
       </c>
     </row>
@@ -4576,7 +5201,7 @@
       <c r="G68" t="s">
         <v>309</v>
       </c>
-      <c r="Z68" t="s">
+      <c r="Y68" t="s">
         <v>210</v>
       </c>
     </row>
@@ -4584,7 +5209,7 @@
       <c r="G69" t="s">
         <v>265</v>
       </c>
-      <c r="Z69" t="s">
+      <c r="Y69" t="s">
         <v>384</v>
       </c>
     </row>
@@ -4592,7 +5217,7 @@
       <c r="G70" t="s">
         <v>520</v>
       </c>
-      <c r="Z70" t="s">
+      <c r="Y70" t="s">
         <v>436</v>
       </c>
     </row>
@@ -4600,7 +5225,7 @@
       <c r="G71" t="s">
         <v>310</v>
       </c>
-      <c r="Z71" t="s">
+      <c r="Y71" t="s">
         <v>135</v>
       </c>
     </row>
@@ -4608,7 +5233,7 @@
       <c r="G72" t="s">
         <v>405</v>
       </c>
-      <c r="Z72" t="s">
+      <c r="Y72" t="s">
         <v>136</v>
       </c>
     </row>
@@ -4616,7 +5241,7 @@
       <c r="G73" t="s">
         <v>300</v>
       </c>
-      <c r="Z73" t="s">
+      <c r="Y73" t="s">
         <v>137</v>
       </c>
     </row>
@@ -4624,7 +5249,7 @@
       <c r="G74" t="s">
         <v>406</v>
       </c>
-      <c r="Z74" t="s">
+      <c r="Y74" t="s">
         <v>138</v>
       </c>
     </row>
@@ -4632,7 +5257,7 @@
       <c r="G75" t="s">
         <v>258</v>
       </c>
-      <c r="Z75" t="s">
+      <c r="Y75" t="s">
         <v>193</v>
       </c>
     </row>
@@ -4640,7 +5265,7 @@
       <c r="G76" t="s">
         <v>505</v>
       </c>
-      <c r="Z76" t="s">
+      <c r="Y76" t="s">
         <v>194</v>
       </c>
     </row>
@@ -4648,7 +5273,7 @@
       <c r="G77" t="s">
         <v>340</v>
       </c>
-      <c r="Z77" t="s">
+      <c r="Y77" t="s">
         <v>448</v>
       </c>
     </row>
@@ -4656,7 +5281,7 @@
       <c r="G78" t="s">
         <v>276</v>
       </c>
-      <c r="Z78" t="s">
+      <c r="Y78" t="s">
         <v>461</v>
       </c>
     </row>
@@ -4664,7 +5289,7 @@
       <c r="G79" t="s">
         <v>282</v>
       </c>
-      <c r="Z79" t="s">
+      <c r="Y79" t="s">
         <v>139</v>
       </c>
     </row>
@@ -4672,7 +5297,7 @@
       <c r="G80" t="s">
         <v>287</v>
       </c>
-      <c r="Z80" t="s">
+      <c r="Y80" t="s">
         <v>140</v>
       </c>
     </row>
@@ -4680,7 +5305,7 @@
       <c r="G81" t="s">
         <v>424</v>
       </c>
-      <c r="Z81" t="s">
+      <c r="Y81" t="s">
         <v>141</v>
       </c>
     </row>
@@ -4688,7 +5313,7 @@
       <c r="G82" t="s">
         <v>328</v>
       </c>
-      <c r="Z82" t="s">
+      <c r="Y82" t="s">
         <v>491</v>
       </c>
     </row>
@@ -4696,7 +5321,7 @@
       <c r="G83" t="s">
         <v>266</v>
       </c>
-      <c r="Z83" t="s">
+      <c r="Y83" t="s">
         <v>142</v>
       </c>
     </row>
@@ -4704,7 +5329,7 @@
       <c r="G84" t="s">
         <v>277</v>
       </c>
-      <c r="Z84" t="s">
+      <c r="Y84" t="s">
         <v>143</v>
       </c>
     </row>
@@ -4712,7 +5337,7 @@
       <c r="G85" t="s">
         <v>283</v>
       </c>
-      <c r="Z85" t="s">
+      <c r="Y85" t="s">
         <v>195</v>
       </c>
     </row>
@@ -4720,7 +5345,7 @@
       <c r="G86" t="s">
         <v>272</v>
       </c>
-      <c r="Z86" t="s">
+      <c r="Y86" t="s">
         <v>492</v>
       </c>
     </row>
@@ -4728,7 +5353,7 @@
       <c r="G87" t="s">
         <v>523</v>
       </c>
-      <c r="Z87" t="s">
+      <c r="Y87" t="s">
         <v>196</v>
       </c>
     </row>
@@ -4736,7 +5361,7 @@
       <c r="G88" t="s">
         <v>267</v>
       </c>
-      <c r="Z88" t="s">
+      <c r="Y88" t="s">
         <v>449</v>
       </c>
     </row>
@@ -4744,7 +5369,7 @@
       <c r="G89" t="s">
         <v>284</v>
       </c>
-      <c r="Z89" t="s">
+      <c r="Y89" t="s">
         <v>197</v>
       </c>
     </row>
@@ -4752,7 +5377,7 @@
       <c r="G90" t="s">
         <v>268</v>
       </c>
-      <c r="Z90" t="s">
+      <c r="Y90" t="s">
         <v>198</v>
       </c>
     </row>
@@ -4760,7 +5385,7 @@
       <c r="G91" t="s">
         <v>269</v>
       </c>
-      <c r="Z91" t="s">
+      <c r="Y91" t="s">
         <v>211</v>
       </c>
     </row>
@@ -4768,7 +5393,7 @@
       <c r="G92" t="s">
         <v>301</v>
       </c>
-      <c r="Z92" t="s">
+      <c r="Y92" t="s">
         <v>144</v>
       </c>
     </row>
@@ -4776,7 +5401,7 @@
       <c r="G93" t="s">
         <v>307</v>
       </c>
-      <c r="Z93" t="s">
+      <c r="Y93" t="s">
         <v>199</v>
       </c>
     </row>
@@ -4784,7 +5409,7 @@
       <c r="G94" t="s">
         <v>291</v>
       </c>
-      <c r="Z94" t="s">
+      <c r="Y94" t="s">
         <v>437</v>
       </c>
     </row>
@@ -4792,7 +5417,7 @@
       <c r="G95" t="s">
         <v>336</v>
       </c>
-      <c r="Z95" t="s">
+      <c r="Y95" t="s">
         <v>438</v>
       </c>
     </row>
@@ -4800,7 +5425,7 @@
       <c r="G96" t="s">
         <v>273</v>
       </c>
-      <c r="Z96" t="s">
+      <c r="Y96" t="s">
         <v>200</v>
       </c>
     </row>
@@ -4808,167 +5433,167 @@
       <c r="G97" t="s">
         <v>274</v>
       </c>
-      <c r="Z97" t="s">
+      <c r="Y97" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="98">
-      <c r="Z98" t="s">
+      <c r="Y98" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="99">
-      <c r="Z99" t="s">
+      <c r="Y99" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="100">
-      <c r="Z100" t="s">
+      <c r="Y100" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="101">
-      <c r="Z101" t="s">
+      <c r="Y101" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="102">
-      <c r="Z102" t="s">
+      <c r="Y102" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="103">
-      <c r="Z103" t="s">
+      <c r="Y103" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="104">
-      <c r="Z104" t="s">
+      <c r="Y104" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="105">
-      <c r="Z105" t="s">
+      <c r="Y105" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="106">
-      <c r="Z106" t="s">
+      <c r="Y106" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="107">
-      <c r="Z107" t="s">
+      <c r="Y107" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="108">
-      <c r="Z108" t="s">
+      <c r="Y108" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="109">
-      <c r="Z109" t="s">
+      <c r="Y109" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="110">
-      <c r="Z110" t="s">
+      <c r="Y110" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="111">
-      <c r="Z111" t="s">
+      <c r="Y111" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="112">
-      <c r="Z112" t="s">
+      <c r="Y112" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="113">
-      <c r="Z113" t="s">
+      <c r="Y113" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="114">
-      <c r="Z114" t="s">
+      <c r="Y114" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="115">
-      <c r="Z115" t="s">
+      <c r="Y115" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="116">
-      <c r="Z116" t="s">
+      <c r="Y116" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="117">
-      <c r="Z117" t="s">
+      <c r="Y117" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="118">
-      <c r="Z118" t="s">
+      <c r="Y118" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="119">
-      <c r="Z119" t="s">
+      <c r="Y119" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="120">
-      <c r="Z120" t="s">
+      <c r="Y120" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="121">
-      <c r="Z121" t="s">
+      <c r="Y121" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="122">
-      <c r="Z122" t="s">
+      <c r="Y122" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="123">
-      <c r="Z123" t="s">
+      <c r="Y123" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="124">
-      <c r="Z124" t="s">
+      <c r="Y124" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="125">
-      <c r="Z125" t="s">
+      <c r="Y125" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="126">
-      <c r="Z126" t="s">
+      <c r="Y126" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="127">
-      <c r="Z127" t="s">
+      <c r="Y127" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="128">
-      <c r="Z128" t="s">
+      <c r="Y128" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="129">
-      <c r="Z129" t="s">
+      <c r="Y129" t="s">
         <v>166</v>
       </c>
     </row>

--- a/examples/mouse/artifact/script/ScreenClick.xlsx
+++ b/examples/mouse/artifact/script/ScreenClick.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10708"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10812"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/tutorials/examples/mouse/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{47295E67-27DC-024A-8982-76A24CDD18D2}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43"/>
+  <xr:revisionPtr documentId="13_ncr:1_{D660F035-C58F-E345-B2FF-D2F356C6E26B}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44"/>
   <bookViews>
-    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="21020" windowWidth="51200" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="460"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="21020" windowWidth="40960" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="460"/>
   </bookViews>
   <sheets>
     <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
@@ -24,7 +24,7 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$97</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$98</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$5</definedName>
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
@@ -47,7 +47,7 @@
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$134</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1766" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2349" uniqueCount="590">
   <si>
     <t>description</t>
   </si>
@@ -1676,12 +1676,6 @@
     <t>compact(var,json,removeEmpty)</t>
   </si>
   <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>spellCheck(var,profile,text)</t>
-  </si>
-  <si>
     <t>outputToCloud(resource)</t>
   </si>
   <si>
@@ -1787,9 +1781,6 @@
     <t>Screen Capture Diffs</t>
   </si>
   <si>
-    <t>$(syspath|screenshot|fullpath)/${nexial.lastScreenshot}</t>
-  </si>
-  <si>
     <t>0,102,*,*</t>
   </si>
   <si>
@@ -1806,6 +1797,54 @@
   </si>
   <si>
     <t>storeKeys(json,jsonpath,var)</t>
+  </si>
+  <si>
+    <t>${nexial.lastScreenshot}</t>
+  </si>
+  <si>
+    <t>different file path based on "output-to-cloud" setting</t>
+  </si>
+  <si>
+    <t>desktopScreenshot-crop</t>
+  </si>
+  <si>
+    <t>$(syspath|out|fullpath)/desktopScreenshot.png</t>
+  </si>
+  <si>
+    <t>ProceedIf( ${nexial.outputToCloud} )</t>
+  </si>
+  <si>
+    <t>ProceedIf( !${nexial.outputToCloud} )</t>
+  </si>
+  <si>
+    <t>${desktopScreenshot-crop}</t>
+  </si>
+  <si>
+    <t>webdriverScreenshot-crop</t>
+  </si>
+  <si>
+    <t>$(syspath|out|fullpath)/webdriverScreenshot.png</t>
+  </si>
+  <si>
+    <t>${webdriverScreenshot-crop}</t>
+  </si>
+  <si>
+    <t>assertMultiSelect(locator)</t>
+  </si>
+  <si>
+    <t>assertSingleSelect(locator)</t>
+  </si>
+  <si>
+    <t>updateAttribute(locator,attrName,value)</t>
+  </si>
+  <si>
+    <t>assertElementNotPresent(name)</t>
+  </si>
+  <si>
+    <t>saveInfiniteDivsAsCsv(config,file)</t>
+  </si>
+  <si>
+    <t>saveInfiniteTableAsCsv(config,file)</t>
   </si>
 </sst>
 </file>
@@ -1813,7 +1852,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="44" x14ac:knownFonts="1">
+  <fonts count="60" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2100,8 +2139,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="58">
+  <fills count="85">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2426,8 +2566,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="67">
+  <borders count="99">
     <border>
       <left/>
       <right/>
@@ -3117,6 +3410,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -3124,7 +3743,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="86">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3305,52 +3924,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="30" fontId="27" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="33" fontId="28" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="36" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="46" fillId="36" fontId="30" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="39" borderId="50" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="50" fillId="39" fontId="31" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="42" borderId="54" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="54" fillId="42" fontId="32" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="45" fontId="34" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="48" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="48" fontId="36" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="39" borderId="62" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="62" fillId="39" fontId="37" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="51" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="66" fillId="51" fontId="38" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="51" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="66" fillId="51" fontId="39" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="40" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="54" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="54" fontId="41" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="42" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="57" fontId="43" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="60" borderId="74" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="63" borderId="78" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="66" borderId="82" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="69" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="72" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="75" borderId="90" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="66" borderId="94" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="78" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="78" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="81" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="84" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3675,7 +4342,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE129"/>
+  <dimension ref="A1:AE134"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -4056,7 +4723,7 @@
         <v>428</v>
       </c>
       <c r="G5" t="s">
-        <v>332</v>
+        <v>587</v>
       </c>
       <c r="H5" t="s">
         <v>455</v>
@@ -4130,7 +4797,7 @@
         <v>477</v>
       </c>
       <c r="G6" t="s">
-        <v>383</v>
+        <v>332</v>
       </c>
       <c r="H6" t="s">
         <v>443</v>
@@ -4192,7 +4859,7 @@
         <v>220</v>
       </c>
       <c r="G7" t="s">
-        <v>361</v>
+        <v>383</v>
       </c>
       <c r="H7" t="s">
         <v>442</v>
@@ -4254,7 +4921,7 @@
         <v>314</v>
       </c>
       <c r="G8" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H8" t="s">
         <v>324</v>
@@ -4310,7 +4977,7 @@
         <v>31</v>
       </c>
       <c r="G9" t="s">
-        <v>302</v>
+        <v>362</v>
       </c>
       <c r="H9" t="s">
         <v>325</v>
@@ -4354,7 +5021,7 @@
         <v>311</v>
       </c>
       <c r="G10" t="s">
-        <v>348</v>
+        <v>302</v>
       </c>
       <c r="H10" t="s">
         <v>447</v>
@@ -4395,7 +5062,7 @@
         <v>251</v>
       </c>
       <c r="G11" t="s">
-        <v>270</v>
+        <v>348</v>
       </c>
       <c r="H11" t="s">
         <v>318</v>
@@ -4433,7 +5100,7 @@
         <v>315</v>
       </c>
       <c r="G12" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="H12" t="s">
         <v>319</v>
@@ -4471,7 +5138,7 @@
         <v>337</v>
       </c>
       <c r="G13" t="s">
-        <v>312</v>
+        <v>259</v>
       </c>
       <c r="H13" t="s">
         <v>320</v>
@@ -4506,7 +5173,7 @@
         <v>36</v>
       </c>
       <c r="G14" t="s">
-        <v>260</v>
+        <v>312</v>
       </c>
       <c r="H14" t="s">
         <v>321</v>
@@ -4541,7 +5208,7 @@
         <v>57</v>
       </c>
       <c r="G15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K15" t="s">
         <v>482</v>
@@ -4573,13 +5240,13 @@
         <v>380</v>
       </c>
       <c r="G16" t="s">
-        <v>313</v>
+        <v>261</v>
       </c>
       <c r="K16" t="s">
         <v>79</v>
       </c>
       <c r="M16" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="Q16" t="s">
         <v>487</v>
@@ -4605,7 +5272,7 @@
         <v>381</v>
       </c>
       <c r="G17" t="s">
-        <v>87</v>
+        <v>313</v>
       </c>
       <c r="K17" t="s">
         <v>80</v>
@@ -4631,7 +5298,7 @@
         <v>410</v>
       </c>
       <c r="G18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K18" t="s">
         <v>458</v>
@@ -4654,7 +5321,7 @@
         <v>58</v>
       </c>
       <c r="G19" t="s">
-        <v>292</v>
+        <v>88</v>
       </c>
       <c r="K19" t="s">
         <v>81</v>
@@ -4674,7 +5341,7 @@
         <v>59</v>
       </c>
       <c r="G20" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K20" t="s">
         <v>82</v>
@@ -4694,7 +5361,7 @@
         <v>252</v>
       </c>
       <c r="G21" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K21" t="s">
         <v>375</v>
@@ -4711,10 +5378,10 @@
         <v>408</v>
       </c>
       <c r="E22" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="G22" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K22" t="s">
         <v>465</v>
@@ -4734,7 +5401,7 @@
         <v>60</v>
       </c>
       <c r="G23" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="K23" t="s">
         <v>43</v>
@@ -4754,13 +5421,13 @@
         <v>317</v>
       </c>
       <c r="G24" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="K24" t="s">
         <v>387</v>
       </c>
       <c r="Y24" t="s">
-        <v>107</v>
+        <v>584</v>
       </c>
       <c r="AD24" t="s">
         <v>528</v>
@@ -4774,13 +5441,13 @@
         <v>61</v>
       </c>
       <c r="G25" t="s">
-        <v>74</v>
+        <v>275</v>
       </c>
       <c r="K25" t="s">
         <v>519</v>
       </c>
       <c r="Y25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AD25" t="s">
         <v>529</v>
@@ -4794,13 +5461,13 @@
         <v>444</v>
       </c>
       <c r="G26" t="s">
-        <v>278</v>
+        <v>74</v>
       </c>
       <c r="K26" t="s">
         <v>83</v>
       </c>
       <c r="Y26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AD26" t="s">
         <v>232</v>
@@ -4814,13 +5481,13 @@
         <v>221</v>
       </c>
       <c r="G27" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
       <c r="K27" t="s">
         <v>429</v>
       </c>
       <c r="Y27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AD27" t="s">
         <v>233</v>
@@ -4834,13 +5501,13 @@
         <v>222</v>
       </c>
       <c r="G28" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="K28" t="s">
         <v>44</v>
       </c>
       <c r="Y28" t="s">
-        <v>323</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29">
@@ -4851,13 +5518,13 @@
         <v>463</v>
       </c>
       <c r="G29" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K29" t="s">
         <v>45</v>
       </c>
       <c r="Y29" t="s">
-        <v>111</v>
+        <v>323</v>
       </c>
     </row>
     <row r="30">
@@ -4868,10 +5535,10 @@
         <v>464</v>
       </c>
       <c r="G30" t="s">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="Y30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31">
@@ -4879,10 +5546,10 @@
         <v>411</v>
       </c>
       <c r="G31" t="s">
-        <v>271</v>
+        <v>212</v>
       </c>
       <c r="Y31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32">
@@ -4890,10 +5557,10 @@
         <v>62</v>
       </c>
       <c r="G32" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="Y32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33">
@@ -4901,10 +5568,10 @@
         <v>63</v>
       </c>
       <c r="G33" t="s">
-        <v>504</v>
+        <v>281</v>
       </c>
       <c r="Y33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34">
@@ -4912,10 +5579,10 @@
         <v>64</v>
       </c>
       <c r="G34" t="s">
-        <v>256</v>
+        <v>504</v>
       </c>
       <c r="Y34" t="s">
-        <v>116</v>
+        <v>585</v>
       </c>
     </row>
     <row r="35">
@@ -4923,10 +5590,10 @@
         <v>65</v>
       </c>
       <c r="G35" t="s">
-        <v>326</v>
+        <v>256</v>
       </c>
       <c r="Y35" t="s">
-        <v>206</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36">
@@ -4934,10 +5601,10 @@
         <v>66</v>
       </c>
       <c r="G36" t="s">
-        <v>303</v>
+        <v>326</v>
       </c>
       <c r="Y36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37">
@@ -4945,10 +5612,10 @@
         <v>67</v>
       </c>
       <c r="G37" t="s">
-        <v>257</v>
+        <v>303</v>
       </c>
       <c r="Y37" t="s">
-        <v>334</v>
+        <v>206</v>
       </c>
     </row>
     <row r="38">
@@ -4956,10 +5623,10 @@
         <v>68</v>
       </c>
       <c r="G38" t="s">
-        <v>304</v>
+        <v>257</v>
       </c>
       <c r="Y38" t="s">
-        <v>433</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39">
@@ -4967,633 +5634,661 @@
         <v>69</v>
       </c>
       <c r="G39" t="s">
-        <v>263</v>
+        <v>304</v>
       </c>
       <c r="Y39" t="s">
-        <v>522</v>
+        <v>334</v>
       </c>
     </row>
     <row r="40">
       <c r="G40" t="s">
-        <v>76</v>
+        <v>263</v>
       </c>
       <c r="Y40" t="s">
-        <v>388</v>
+        <v>433</v>
       </c>
     </row>
     <row r="41">
       <c r="G41" t="s">
-        <v>208</v>
+        <v>76</v>
       </c>
       <c r="Y41" t="s">
-        <v>118</v>
+        <v>522</v>
       </c>
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>536</v>
+        <v>208</v>
       </c>
       <c r="Y42" t="s">
-        <v>119</v>
+        <v>388</v>
       </c>
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>285</v>
+        <v>534</v>
       </c>
       <c r="Y43" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="Y44" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Y45" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>339</v>
+        <v>297</v>
       </c>
       <c r="Y46" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Y47" t="s">
-        <v>434</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>207</v>
+        <v>338</v>
       </c>
       <c r="Y48" t="s">
-        <v>209</v>
+        <v>123</v>
       </c>
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>316</v>
+        <v>207</v>
       </c>
       <c r="Y49" t="s">
-        <v>75</v>
+        <v>434</v>
       </c>
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="Y50" t="s">
-        <v>531</v>
+        <v>209</v>
       </c>
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>363</v>
+        <v>335</v>
       </c>
       <c r="Y51" t="s">
-        <v>124</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>298</v>
+        <v>363</v>
       </c>
       <c r="Y52" t="s">
-        <v>125</v>
+        <v>531</v>
       </c>
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>351</v>
+        <v>298</v>
       </c>
       <c r="Y53" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>327</v>
+        <v>351</v>
       </c>
       <c r="Y54" t="s">
-        <v>490</v>
+        <v>125</v>
       </c>
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>264</v>
+        <v>327</v>
       </c>
       <c r="Y55" t="s">
-        <v>459</v>
+        <v>126</v>
       </c>
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>288</v>
+        <v>264</v>
       </c>
       <c r="Y56" t="s">
-        <v>127</v>
+        <v>490</v>
       </c>
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Y57" t="s">
-        <v>342</v>
+        <v>459</v>
       </c>
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>537</v>
+        <v>289</v>
       </c>
       <c r="Y58" t="s">
-        <v>460</v>
+        <v>127</v>
       </c>
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>290</v>
+        <v>535</v>
       </c>
       <c r="Y59" t="s">
-        <v>128</v>
+        <v>342</v>
       </c>
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="Y60" t="s">
-        <v>129</v>
+        <v>460</v>
       </c>
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="Y61" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>333</v>
+        <v>308</v>
       </c>
       <c r="Y62" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>305</v>
+        <v>333</v>
       </c>
       <c r="Y63" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Y64" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>364</v>
+        <v>306</v>
       </c>
       <c r="Y65" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="Y66" t="s">
-        <v>435</v>
+        <v>133</v>
       </c>
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>341</v>
+        <v>365</v>
       </c>
       <c r="Y67" t="s">
-        <v>468</v>
+        <v>134</v>
       </c>
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>309</v>
+        <v>341</v>
       </c>
       <c r="Y68" t="s">
-        <v>210</v>
+        <v>435</v>
       </c>
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>265</v>
+        <v>309</v>
       </c>
       <c r="Y69" t="s">
-        <v>384</v>
+        <v>468</v>
       </c>
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>520</v>
+        <v>265</v>
       </c>
       <c r="Y70" t="s">
-        <v>436</v>
+        <v>210</v>
       </c>
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>310</v>
+        <v>520</v>
       </c>
       <c r="Y71" t="s">
-        <v>135</v>
+        <v>384</v>
       </c>
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>405</v>
+        <v>310</v>
       </c>
       <c r="Y72" t="s">
-        <v>136</v>
+        <v>436</v>
       </c>
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>300</v>
+        <v>405</v>
       </c>
       <c r="Y73" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>406</v>
+        <v>300</v>
       </c>
       <c r="Y74" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>258</v>
+        <v>406</v>
       </c>
       <c r="Y75" t="s">
-        <v>193</v>
+        <v>137</v>
       </c>
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>505</v>
+        <v>258</v>
       </c>
       <c r="Y76" t="s">
-        <v>194</v>
+        <v>138</v>
       </c>
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>340</v>
+        <v>505</v>
       </c>
       <c r="Y77" t="s">
-        <v>448</v>
+        <v>193</v>
       </c>
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>276</v>
+        <v>340</v>
       </c>
       <c r="Y78" t="s">
-        <v>461</v>
+        <v>194</v>
       </c>
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="Y79" t="s">
-        <v>139</v>
+        <v>448</v>
       </c>
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="Y80" t="s">
-        <v>140</v>
+        <v>461</v>
       </c>
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>424</v>
+        <v>287</v>
       </c>
       <c r="Y81" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>328</v>
+        <v>424</v>
       </c>
       <c r="Y82" t="s">
-        <v>491</v>
+        <v>140</v>
       </c>
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>266</v>
+        <v>328</v>
       </c>
       <c r="Y83" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="Y84" t="s">
-        <v>143</v>
+        <v>491</v>
       </c>
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="Y85" t="s">
-        <v>195</v>
+        <v>142</v>
       </c>
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="Y86" t="s">
-        <v>492</v>
+        <v>143</v>
       </c>
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>523</v>
+        <v>272</v>
       </c>
       <c r="Y87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>267</v>
+        <v>523</v>
       </c>
       <c r="Y88" t="s">
-        <v>449</v>
+        <v>492</v>
       </c>
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="Y89" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="Y90" t="s">
-        <v>198</v>
+        <v>449</v>
       </c>
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Y91" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>301</v>
+        <v>269</v>
       </c>
       <c r="Y92" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
     </row>
     <row r="93">
       <c r="G93" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="Y93" t="s">
-        <v>199</v>
+        <v>588</v>
       </c>
     </row>
     <row r="94">
       <c r="G94" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="Y94" t="s">
-        <v>437</v>
+        <v>589</v>
       </c>
     </row>
     <row r="95">
       <c r="G95" t="s">
-        <v>336</v>
+        <v>291</v>
       </c>
       <c r="Y95" t="s">
-        <v>438</v>
+        <v>211</v>
       </c>
     </row>
     <row r="96">
       <c r="G96" t="s">
-        <v>273</v>
+        <v>336</v>
       </c>
       <c r="Y96" t="s">
-        <v>200</v>
+        <v>144</v>
       </c>
     </row>
     <row r="97">
       <c r="G97" t="s">
+        <v>273</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="G98" t="s">
         <v>274</v>
       </c>
-      <c r="Y97" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="98">
       <c r="Y98" t="s">
-        <v>202</v>
+        <v>437</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>203</v>
+        <v>438</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>493</v>
+        <v>202</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>517</v>
+        <v>203</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>145</v>
+        <v>219</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>518</v>
+        <v>204</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>378</v>
+        <v>493</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>146</v>
+        <v>517</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>148</v>
+        <v>518</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>149</v>
+        <v>378</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>439</v>
+        <v>155</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>162</v>
+        <v>439</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>46</v>
+        <v>159</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>163</v>
+        <v>586</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="128">
       <c r="Y128" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="129">
       <c r="Y129" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="Y130" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="Y131" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="Y132" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="Y133" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="Y134" t="s">
         <v>166</v>
       </c>
     </row>
@@ -5604,7 +6299,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P103"/>
+  <dimension ref="A1:P107"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" zoomScale="100">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
@@ -5617,7 +6312,9 @@
     <col min="2" max="2" bestFit="true" customWidth="true" style="9" width="45.1640625" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" style="14" width="9.6640625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" style="10" width="34.83203125" collapsed="true"/>
-    <col min="5" max="9" customWidth="true" style="10" width="24.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="10" width="25.5" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="10" width="28.33203125" collapsed="true"/>
+    <col min="7" max="9" customWidth="true" style="10" width="26.0" collapsed="true"/>
     <col min="10" max="10" bestFit="true" customWidth="true" style="23" width="43.1640625" collapsed="true"/>
     <col min="11" max="11" customWidth="true" style="11" width="1.6640625" collapsed="true"/>
     <col min="12" max="12" customWidth="true" style="16" width="12.0" collapsed="true"/>
@@ -5660,7 +6357,7 @@
     </row>
     <row customHeight="1" ht="93" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
@@ -5670,7 +6367,7 @@
       <c r="G2" s="25"/>
       <c r="H2" s="25"/>
       <c r="I2" s="26" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="J2" s="19"/>
       <c r="K2" s="3"/>
@@ -5743,7 +6440,7 @@
     </row>
     <row customHeight="1" ht="23" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="13" t="s">
@@ -5753,7 +6450,7 @@
         <v>193</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -5794,25 +6491,25 @@
         <v>21</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>542</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>544</v>
-      </c>
       <c r="H7" s="7" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="22"/>
       <c r="K7" s="3"/>
       <c r="L7" s="15" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="M7" s="12"/>
       <c r="N7" s="15"/>
@@ -5828,10 +6525,10 @@
         <v>523</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -5846,7 +6543,7 @@
     <row customHeight="1" ht="23" r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="27"/>
       <c r="B9" s="5" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>13</v>
@@ -5855,7 +6552,7 @@
         <v>69</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -5864,7 +6561,7 @@
       <c r="J9" s="22"/>
       <c r="K9" s="3"/>
       <c r="L9" s="15" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="M9" s="12"/>
       <c r="N9" s="15"/>
@@ -5872,7 +6569,7 @@
     </row>
     <row customHeight="1" ht="23" r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="13" t="s">
@@ -5882,7 +6579,7 @@
         <v>193</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -5898,25 +6595,25 @@
     <row customHeight="1" ht="23" r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="27"/>
       <c r="B11" s="5" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="H11" s="7" t="s">
         <v>550</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>551</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>552</v>
       </c>
       <c r="I11" s="7"/>
       <c r="J11" s="22"/>
@@ -5936,7 +6633,7 @@
         <v>154</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -5945,7 +6642,7 @@
       <c r="J12" s="22"/>
       <c r="K12" s="3"/>
       <c r="L12" s="15" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="M12" s="12"/>
       <c r="N12" s="15"/>
@@ -5953,34 +6650,34 @@
     </row>
     <row customHeight="1" ht="23" r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="27" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>21</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="22"/>
       <c r="K13" s="3"/>
       <c r="L13" s="15" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="M13" s="12"/>
       <c r="N13" s="15"/>
@@ -5989,7 +6686,7 @@
     <row customHeight="1" ht="23" r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="27"/>
       <c r="B14" s="5" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>13</v>
@@ -5998,10 +6695,10 @@
         <v>61</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
@@ -6016,26 +6713,26 @@
     <row customHeight="1" ht="23" r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="27"/>
       <c r="B15" s="5" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>343</v>
+        <v>13</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>347</v>
+        <v>61</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>561</v>
+        <v>576</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>571</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>561</v>
-      </c>
+        <v>577</v>
+      </c>
+      <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
-      <c r="J15" s="22"/>
+      <c r="J15" s="22" t="s">
+        <v>578</v>
+      </c>
       <c r="K15" s="3"/>
       <c r="L15" s="15"/>
       <c r="M15" s="12"/>
@@ -6044,27 +6741,27 @@
     </row>
     <row customHeight="1" ht="23" r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="27"/>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="5"/>
+      <c r="C16" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>559</v>
       </c>
-      <c r="C16" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>555</v>
-      </c>
-      <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
-      <c r="J16" s="22"/>
+      <c r="J16" s="22" t="s">
+        <v>579</v>
+      </c>
       <c r="K16" s="3"/>
-      <c r="L16" s="15" t="s">
-        <v>547</v>
-      </c>
+      <c r="L16" s="15"/>
       <c r="M16" s="12"/>
       <c r="N16" s="15"/>
       <c r="O16" s="3"/>
@@ -6072,21 +6769,23 @@
     <row customHeight="1" ht="23" r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="27"/>
       <c r="B17" s="5" t="s">
-        <v>557</v>
+        <v>569</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>13</v>
+        <v>343</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>61</v>
+        <v>347</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>570</v>
-      </c>
-      <c r="G17" s="7"/>
+        <v>568</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>580</v>
+      </c>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="22"/>
@@ -6098,51 +6797,49 @@
     </row>
     <row customHeight="1" ht="23" r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="27"/>
-      <c r="B18" s="5"/>
+      <c r="B18" s="5" t="s">
+        <v>557</v>
+      </c>
       <c r="C18" s="13" t="s">
-        <v>343</v>
+        <v>52</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>347</v>
+        <v>144</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>562</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>573</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>562</v>
-      </c>
+        <v>553</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="22"/>
       <c r="K18" s="3"/>
-      <c r="L18" s="15"/>
+      <c r="L18" s="15" t="s">
+        <v>545</v>
+      </c>
       <c r="M18" s="12"/>
       <c r="N18" s="15"/>
       <c r="O18" s="3"/>
     </row>
     <row customHeight="1" ht="23" r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="27"/>
-      <c r="B19" s="29" t="s">
-        <v>568</v>
+      <c r="B19" s="5" t="s">
+        <v>555</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>343</v>
+        <v>13</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>530</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>563</v>
+        <v>61</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>558</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>562</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>561</v>
-      </c>
+        <v>574</v>
+      </c>
+      <c r="G19" s="7"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="22"/>
@@ -6154,22 +6851,26 @@
     </row>
     <row customHeight="1" ht="23" r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="27"/>
-      <c r="B20" s="5"/>
+      <c r="B20" s="5" t="s">
+        <v>575</v>
+      </c>
       <c r="C20" s="13" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>478</v>
+        <v>61</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>564</v>
-      </c>
-      <c r="F20" s="7"/>
+        <v>581</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>582</v>
+      </c>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="22" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="K20" s="3"/>
       <c r="L20" s="15"/>
@@ -6181,20 +6882,22 @@
       <c r="A21" s="27"/>
       <c r="B21" s="5"/>
       <c r="C21" s="13" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>478</v>
+        <v>61</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>565</v>
-      </c>
-      <c r="F21" s="7"/>
+        <v>581</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>560</v>
+      </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="22" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
       <c r="K21" s="3"/>
       <c r="L21" s="15"/>
@@ -6205,11 +6908,21 @@
     <row customHeight="1" ht="23" r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="27"/>
       <c r="B22" s="5"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
+      <c r="C22" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>583</v>
+      </c>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="J22" s="22"/>
@@ -6221,12 +6934,24 @@
     </row>
     <row customHeight="1" ht="23" r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="27"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
+      <c r="B23" s="29" t="s">
+        <v>566</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>561</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>580</v>
+      </c>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="22"/>
@@ -6239,14 +6964,22 @@
     <row customHeight="1" ht="23" r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="27"/>
       <c r="B24" s="5"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
+      <c r="C24" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>562</v>
+      </c>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
-      <c r="J24" s="22"/>
+      <c r="J24" s="22" t="s">
+        <v>564</v>
+      </c>
       <c r="K24" s="3"/>
       <c r="L24" s="15"/>
       <c r="M24" s="12"/>
@@ -6256,14 +6989,22 @@
     <row customHeight="1" ht="23" r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="27"/>
       <c r="B25" s="5"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
+      <c r="C25" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>563</v>
+      </c>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
-      <c r="J25" s="22"/>
+      <c r="J25" s="22" t="s">
+        <v>565</v>
+      </c>
       <c r="K25" s="3"/>
       <c r="L25" s="15"/>
       <c r="M25" s="12"/>
@@ -6357,7 +7098,7 @@
     </row>
     <row customHeight="1" ht="23" r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="27"/>
-      <c r="B31" s="8"/>
+      <c r="B31" s="5"/>
       <c r="C31" s="13"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
@@ -6425,7 +7166,7 @@
     </row>
     <row customHeight="1" ht="23" r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="27"/>
-      <c r="B35" s="5"/>
+      <c r="B35" s="8"/>
       <c r="C35" s="13"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
@@ -7595,6 +8336,74 @@
       <c r="M103" s="12"/>
       <c r="N103" s="15"/>
       <c r="O103" s="3"/>
+    </row>
+    <row customHeight="1" ht="23" r="104" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A104" s="27"/>
+      <c r="B104" s="5"/>
+      <c r="C104" s="13"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="7"/>
+      <c r="F104" s="7"/>
+      <c r="G104" s="7"/>
+      <c r="H104" s="7"/>
+      <c r="I104" s="7"/>
+      <c r="J104" s="22"/>
+      <c r="K104" s="3"/>
+      <c r="L104" s="15"/>
+      <c r="M104" s="12"/>
+      <c r="N104" s="15"/>
+      <c r="O104" s="3"/>
+    </row>
+    <row customHeight="1" ht="23" r="105" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A105" s="27"/>
+      <c r="B105" s="5"/>
+      <c r="C105" s="13"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="7"/>
+      <c r="F105" s="7"/>
+      <c r="G105" s="7"/>
+      <c r="H105" s="7"/>
+      <c r="I105" s="7"/>
+      <c r="J105" s="22"/>
+      <c r="K105" s="3"/>
+      <c r="L105" s="15"/>
+      <c r="M105" s="12"/>
+      <c r="N105" s="15"/>
+      <c r="O105" s="3"/>
+    </row>
+    <row customHeight="1" ht="23" r="106" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A106" s="27"/>
+      <c r="B106" s="5"/>
+      <c r="C106" s="13"/>
+      <c r="D106" s="7"/>
+      <c r="E106" s="7"/>
+      <c r="F106" s="7"/>
+      <c r="G106" s="7"/>
+      <c r="H106" s="7"/>
+      <c r="I106" s="7"/>
+      <c r="J106" s="22"/>
+      <c r="K106" s="3"/>
+      <c r="L106" s="15"/>
+      <c r="M106" s="12"/>
+      <c r="N106" s="15"/>
+      <c r="O106" s="3"/>
+    </row>
+    <row customHeight="1" ht="23" r="107" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A107" s="27"/>
+      <c r="B107" s="5"/>
+      <c r="C107" s="13"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="7"/>
+      <c r="G107" s="7"/>
+      <c r="H107" s="7"/>
+      <c r="I107" s="7"/>
+      <c r="J107" s="22"/>
+      <c r="K107" s="3"/>
+      <c r="L107" s="15"/>
+      <c r="M107" s="12"/>
+      <c r="N107" s="15"/>
+      <c r="O107" s="3"/>
     </row>
   </sheetData>
   <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
@@ -7616,10 +8425,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C103" type="list" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C107" type="list" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D103" type="list" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D107" type="list" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>

--- a/examples/mouse/artifact/script/ScreenClick.xlsx
+++ b/examples/mouse/artifact/script/ScreenClick.xlsx
@@ -20,39 +20,40 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$E$2:$E$39</definedName>
-    <definedName name="csv">'#system'!$F$2:$F$6</definedName>
+    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$98</definedName>
-    <definedName name="excel">'#system'!$H$2:$H$14</definedName>
-    <definedName name="external">'#system'!$I$2:$I$5</definedName>
-    <definedName name="image">'#system'!$J$2:$J$7</definedName>
-    <definedName name="io">'#system'!$K$2:$K$29</definedName>
-    <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$18</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
-    <definedName name="macro">'#system'!$O$2:$O$4</definedName>
-    <definedName name="mail">'#system'!$P$2:$P$2</definedName>
+    <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$14</definedName>
+    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="image">'#system'!$K$2:$K$7</definedName>
+    <definedName name="io">'#system'!$L$2:$L$29</definedName>
+    <definedName name="jms">'#system'!$M$2:$M$4</definedName>
+    <definedName name="json">'#system'!$N$2:$N$18</definedName>
+    <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
+    <definedName name="macro">'#system'!$P$2:$P$4</definedName>
+    <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$Q$2:$Q$16</definedName>
-    <definedName name="pdf">'#system'!$R$2:$R$16</definedName>
-    <definedName name="rdbms">'#system'!$S$2:$S$7</definedName>
-    <definedName name="redis">'#system'!$T$2:$T$10</definedName>
-    <definedName name="sms">'#system'!$U$2:$U$2</definedName>
-    <definedName name="sound">'#system'!$V$2:$V$5</definedName>
-    <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
-    <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$30</definedName>
+    <definedName name="number">'#system'!$R$2:$R$16</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$16</definedName>
+    <definedName name="rdbms">'#system'!$T$2:$T$7</definedName>
+    <definedName name="redis">'#system'!$U$2:$U$10</definedName>
+    <definedName name="sms">'#system'!$V$2:$V$2</definedName>
+    <definedName name="sound">'#system'!$W$2:$W$5</definedName>
+    <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
+    <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$31</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$134</definedName>
-    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
-    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
+    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
+    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
+    <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -75,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2349" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3471" uniqueCount="596">
   <si>
     <t>description</t>
   </si>
@@ -1845,6 +1846,24 @@
   </si>
   <si>
     <t>saveInfiniteTableAsCsv(config,file)</t>
+  </si>
+  <si>
+    <t>aws.vision</t>
+  </si>
+  <si>
+    <t>saveText(profile,image,var)</t>
+  </si>
+  <si>
+    <t>screenshot(file,locator)</t>
+  </si>
+  <si>
+    <t>assertNotContain(text,substring)</t>
+  </si>
+  <si>
+    <t>assertAttributeNotContain(locator,attrName,contains)</t>
+  </si>
+  <si>
+    <t>assertTextNotContain(locator,text)</t>
   </si>
 </sst>
 </file>
@@ -1852,7 +1871,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="60" x14ac:knownFonts="1">
+  <fonts count="92" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2240,8 +2259,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="85">
+  <fills count="139">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2719,8 +2940,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="99">
+  <borders count="163">
     <border>
       <left/>
       <right/>
@@ -3736,6 +4263,658 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -3743,7 +4922,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="118">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3972,52 +5151,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="57" fontId="43" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="60" borderId="74" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="74" fillId="60" fontId="44" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="45" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="63" borderId="78" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="78" fillId="63" fontId="46" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="66" borderId="82" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="82" fillId="66" fontId="47" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="69" borderId="86" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="69" fontId="48" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="49" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="72" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="72" fontId="50" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="51" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="75" borderId="90" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="90" fillId="75" fontId="52" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="66" borderId="94" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="94" fillId="66" fontId="53" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="78" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="78" fontId="54" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="78" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="78" fontId="55" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="56" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="81" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="81" fontId="57" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="69" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="58" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="84" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="59" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="106" fillId="87" fontId="60" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="61" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="110" fillId="90" fontId="62" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="93" fontId="63" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="118" fillId="96" fontId="64" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="65" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="99" fontId="66" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="67" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="122" fillId="102" fontId="68" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="126" fillId="93" fontId="69" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="105" fontId="70" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="105" fontId="71" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="72" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="108" fontId="73" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="74" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="75" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="114" borderId="138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="117" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="120" borderId="146" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="123" borderId="150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="126" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="129" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="120" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="132" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="132" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="138" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4342,7 +5617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE134"/>
+  <dimension ref="A1:AF135"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -4367,81 +5642,84 @@
         <v>471</v>
       </c>
       <c r="E1" t="s">
+        <v>590</v>
+      </c>
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>49</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>343</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>329</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>24</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>502</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>472</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>192</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>50</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>235</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>51</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>391</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>407</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>408</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>352</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>392</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>52</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>53</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>54</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>55</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>409</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>223</v>
       </c>
     </row>
@@ -4459,81 +5737,84 @@
         <v>473</v>
       </c>
       <c r="E2" t="s">
+        <v>591</v>
+      </c>
+      <c r="F2" t="s">
         <v>56</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>70</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>72</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>445</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>77</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>456</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>311</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>379</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>430</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>506</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>483</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>412</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>425</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>249</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>213</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>393</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>414</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>415</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>376</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>402</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>94</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>167</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>172</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>179</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>427</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>494</v>
       </c>
     </row>
@@ -4550,76 +5831,76 @@
       <c r="D3" t="s">
         <v>503</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>453</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>360</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>86</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>47</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>478</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>345</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>337</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>330</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>84</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>507</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>484</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>426</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>236</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>214</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>394</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>416</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>377</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>403</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>95</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>168</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>173</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>359</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>180</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>224</v>
       </c>
     </row>
@@ -4633,82 +5914,82 @@
       <c r="D4" t="s">
         <v>474</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>71</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>382</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>446</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>479</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>346</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>234</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>331</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>25</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>508</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>485</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>26</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>237</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>215</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>395</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>417</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>353</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>404</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>349</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>169</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>174</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>180</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>419</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>590</v>
       </c>
       <c r="B5" t="s">
         <v>370</v>
@@ -4716,73 +5997,73 @@
       <c r="D5" t="s">
         <v>475</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>454</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>428</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>587</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>455</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>521</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>347</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>457</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>85</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>509</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>29</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>238</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>216</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>396</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>418</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>354</v>
       </c>
-      <c r="Y5" t="s">
-        <v>350</v>
-      </c>
       <c r="Z5" t="s">
+        <v>594</v>
+      </c>
+      <c r="AA5" t="s">
         <v>170</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>175</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>181</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>420</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>371</v>
@@ -4790,1505 +6071,1513 @@
       <c r="D6" t="s">
         <v>476</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>27</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>477</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>332</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>443</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>344</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>70</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>28</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>510</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>30</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>239</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>386</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>397</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>356</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>96</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>440</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>176</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>182</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>421</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
         <v>372</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>220</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>383</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>442</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>530</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>16</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>311</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>511</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>32</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>240</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>413</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>398</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>355</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>97</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>441</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>177</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>183</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>422</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>373</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>314</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>361</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>324</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>480</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>33</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>512</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>89</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>241</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>399</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>357</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>98</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>171</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>178</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>184</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>423</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>374</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>31</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>362</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>325</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>78</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>34</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>513</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>90</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>242</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>400</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>358</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>205</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>185</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>343</v>
-      </c>
-      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
         <v>311</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>302</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>447</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>37</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>35</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>514</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>432</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>243</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>401</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>253</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>186</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s">
-        <v>251</v>
-      </c>
-      <c r="G11" t="s">
+        <v>343</v>
+      </c>
+      <c r="F11" t="s">
+        <v>593</v>
+      </c>
+      <c r="H11" t="s">
         <v>348</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>318</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>481</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>466</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>515</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>91</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>244</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>254</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>255</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>329</v>
-      </c>
-      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
         <v>315</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>270</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>319</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>385</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>532</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>516</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>40</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>245</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>99</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>187</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" t="s">
+        <v>329</v>
+      </c>
+      <c r="F13" t="s">
         <v>337</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>259</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>320</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>17</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>431</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>92</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>250</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>322</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>188</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>502</v>
-      </c>
-      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" t="s">
         <v>36</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>312</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>321</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>41</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>467</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>93</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>246</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>100</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>189</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>472</v>
-      </c>
-      <c r="E15" t="s">
+        <v>502</v>
+      </c>
+      <c r="F15" t="s">
         <v>57</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>260</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>482</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>38</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>486</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
         <v>247</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>101</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>190</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>192</v>
-      </c>
-      <c r="E16" t="s">
+        <v>472</v>
+      </c>
+      <c r="F16" t="s">
         <v>380</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>261</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>79</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>573</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>487</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>248</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>73</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>191</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" t="s">
+        <v>192</v>
+      </c>
+      <c r="F17" t="s">
         <v>381</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>313</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>80</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>39</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>488</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>462</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>235</v>
-      </c>
-      <c r="E18" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" t="s">
         <v>410</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>87</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>458</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>42</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>102</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" t="s">
+        <v>235</v>
+      </c>
+      <c r="F19" t="s">
         <v>58</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>88</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>81</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>103</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>391</v>
-      </c>
-      <c r="E20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" t="s">
         <v>59</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>292</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>82</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
         <v>104</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AE20" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>407</v>
-      </c>
-      <c r="E21" t="s">
+        <v>391</v>
+      </c>
+      <c r="F21" t="s">
         <v>252</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>293</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>375</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Z21" t="s">
         <v>105</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AE21" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>408</v>
-      </c>
-      <c r="E22" t="s">
+        <v>407</v>
+      </c>
+      <c r="F22" t="s">
         <v>533</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>294</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>465</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Z22" t="s">
         <v>489</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AE22" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>352</v>
-      </c>
-      <c r="E23" t="s">
+        <v>408</v>
+      </c>
+      <c r="F23" t="s">
         <v>60</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>295</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>43</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Z23" t="s">
         <v>106</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AE23" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>392</v>
-      </c>
-      <c r="E24" t="s">
+        <v>352</v>
+      </c>
+      <c r="F24" t="s">
         <v>317</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>286</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>387</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Z24" t="s">
         <v>584</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AE24" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>52</v>
-      </c>
-      <c r="E25" t="s">
+        <v>392</v>
+      </c>
+      <c r="F25" t="s">
         <v>61</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>275</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>519</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Z25" t="s">
         <v>107</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AE25" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>53</v>
-      </c>
-      <c r="E26" t="s">
+        <v>52</v>
+      </c>
+      <c r="F26" t="s">
         <v>444</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>74</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>83</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="Z26" t="s">
         <v>108</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AE26" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>54</v>
-      </c>
-      <c r="E27" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" t="s">
         <v>221</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>278</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>429</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="Z27" t="s">
         <v>109</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AE27" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>222</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>262</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>44</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="Z28" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>409</v>
-      </c>
-      <c r="E29" t="s">
+        <v>55</v>
+      </c>
+      <c r="F29" t="s">
         <v>463</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>279</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>45</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="Z29" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>409</v>
+      </c>
+      <c r="F30" t="s">
+        <v>464</v>
+      </c>
+      <c r="H30" t="s">
+        <v>280</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
         <v>223</v>
       </c>
-      <c r="E30" t="s">
-        <v>464</v>
-      </c>
-      <c r="G30" t="s">
-        <v>280</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>411</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>212</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Z31" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="32">
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>62</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>271</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="Z32" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="33">
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>63</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>281</v>
       </c>
-      <c r="Y33" t="s">
+      <c r="Z33" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="34">
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>64</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>504</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="Z34" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="35">
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>65</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>256</v>
       </c>
-      <c r="Y35" t="s">
+      <c r="Z35" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="36">
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>66</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>326</v>
       </c>
-      <c r="Y36" t="s">
+      <c r="Z36" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="37">
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>67</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>303</v>
       </c>
-      <c r="Y37" t="s">
+      <c r="Z37" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="38">
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>68</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>257</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="Z38" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="39">
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>69</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>304</v>
       </c>
-      <c r="Y39" t="s">
+      <c r="Z39" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="40">
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>263</v>
       </c>
-      <c r="Y40" t="s">
+      <c r="Z40" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="41">
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>76</v>
       </c>
-      <c r="Y41" t="s">
-        <v>522</v>
+      <c r="Z41" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="42">
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>208</v>
       </c>
-      <c r="Y42" t="s">
+      <c r="Z42" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="43">
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>534</v>
       </c>
-      <c r="Y43" t="s">
+      <c r="Z43" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="44">
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>285</v>
       </c>
-      <c r="Y44" t="s">
+      <c r="Z44" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="45">
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>296</v>
       </c>
-      <c r="Y45" t="s">
+      <c r="Z45" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="46">
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>297</v>
       </c>
-      <c r="Y46" t="s">
+      <c r="Z46" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="47">
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>339</v>
       </c>
-      <c r="Y47" t="s">
+      <c r="Z47" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="48">
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>338</v>
       </c>
-      <c r="Y48" t="s">
+      <c r="Z48" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="49">
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>207</v>
       </c>
-      <c r="Y49" t="s">
+      <c r="Z49" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="50">
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>316</v>
       </c>
-      <c r="Y50" t="s">
+      <c r="Z50" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="51">
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>335</v>
       </c>
-      <c r="Y51" t="s">
+      <c r="Z51" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="52">
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>363</v>
       </c>
-      <c r="Y52" t="s">
+      <c r="Z52" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="53">
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>298</v>
       </c>
-      <c r="Y53" t="s">
+      <c r="Z53" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="54">
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>351</v>
       </c>
-      <c r="Y54" t="s">
+      <c r="Z54" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="55">
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>327</v>
       </c>
-      <c r="Y55" t="s">
+      <c r="Z55" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="56">
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>264</v>
       </c>
-      <c r="Y56" t="s">
+      <c r="Z56" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="57">
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>288</v>
       </c>
-      <c r="Y57" t="s">
+      <c r="Z57" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="58">
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>289</v>
       </c>
-      <c r="Y58" t="s">
+      <c r="Z58" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="59">
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>535</v>
       </c>
-      <c r="Y59" t="s">
+      <c r="Z59" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="60">
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>290</v>
       </c>
-      <c r="Y60" t="s">
+      <c r="Z60" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="61">
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>299</v>
       </c>
-      <c r="Y61" t="s">
+      <c r="Z61" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="62">
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>308</v>
       </c>
-      <c r="Y62" t="s">
+      <c r="Z62" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="63">
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>333</v>
       </c>
-      <c r="Y63" t="s">
+      <c r="Z63" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="64">
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>305</v>
       </c>
-      <c r="Y64" t="s">
+      <c r="Z64" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="65">
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>306</v>
       </c>
-      <c r="Y65" t="s">
+      <c r="Z65" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="66">
-      <c r="G66" t="s">
+      <c r="H66" t="s">
         <v>364</v>
       </c>
-      <c r="Y66" t="s">
+      <c r="Z66" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="67">
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>365</v>
       </c>
-      <c r="Y67" t="s">
+      <c r="Z67" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="68">
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>341</v>
       </c>
-      <c r="Y68" t="s">
+      <c r="Z68" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="69">
-      <c r="G69" t="s">
+      <c r="H69" t="s">
         <v>309</v>
       </c>
-      <c r="Y69" t="s">
+      <c r="Z69" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="70">
-      <c r="G70" t="s">
+      <c r="H70" t="s">
         <v>265</v>
       </c>
-      <c r="Y70" t="s">
+      <c r="Z70" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="71">
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>520</v>
       </c>
-      <c r="Y71" t="s">
+      <c r="Z71" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="72">
-      <c r="G72" t="s">
+      <c r="H72" t="s">
         <v>310</v>
       </c>
-      <c r="Y72" t="s">
+      <c r="Z72" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="73">
-      <c r="G73" t="s">
+      <c r="H73" t="s">
         <v>405</v>
       </c>
-      <c r="Y73" t="s">
+      <c r="Z73" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="74">
-      <c r="G74" t="s">
+      <c r="H74" t="s">
         <v>300</v>
       </c>
-      <c r="Y74" t="s">
+      <c r="Z74" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="75">
-      <c r="G75" t="s">
+      <c r="H75" t="s">
         <v>406</v>
       </c>
-      <c r="Y75" t="s">
+      <c r="Z75" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="76">
-      <c r="G76" t="s">
+      <c r="H76" t="s">
         <v>258</v>
       </c>
-      <c r="Y76" t="s">
+      <c r="Z76" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="77">
-      <c r="G77" t="s">
+      <c r="H77" t="s">
         <v>505</v>
       </c>
-      <c r="Y77" t="s">
+      <c r="Z77" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="78">
-      <c r="G78" t="s">
+      <c r="H78" t="s">
         <v>340</v>
       </c>
-      <c r="Y78" t="s">
+      <c r="Z78" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="79">
-      <c r="G79" t="s">
+      <c r="H79" t="s">
         <v>276</v>
       </c>
-      <c r="Y79" t="s">
+      <c r="Z79" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="80">
-      <c r="G80" t="s">
+      <c r="H80" t="s">
         <v>282</v>
       </c>
-      <c r="Y80" t="s">
+      <c r="Z80" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="81">
-      <c r="G81" t="s">
+      <c r="H81" t="s">
         <v>287</v>
       </c>
-      <c r="Y81" t="s">
+      <c r="Z81" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="82">
-      <c r="G82" t="s">
+      <c r="H82" t="s">
         <v>424</v>
       </c>
-      <c r="Y82" t="s">
+      <c r="Z82" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="83">
-      <c r="G83" t="s">
+      <c r="H83" t="s">
         <v>328</v>
       </c>
-      <c r="Y83" t="s">
+      <c r="Z83" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="84">
-      <c r="G84" t="s">
+      <c r="H84" t="s">
         <v>266</v>
       </c>
-      <c r="Y84" t="s">
+      <c r="Z84" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="85">
-      <c r="G85" t="s">
+      <c r="H85" t="s">
         <v>277</v>
       </c>
-      <c r="Y85" t="s">
+      <c r="Z85" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="86">
-      <c r="G86" t="s">
+      <c r="H86" t="s">
         <v>283</v>
       </c>
-      <c r="Y86" t="s">
+      <c r="Z86" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="87">
-      <c r="G87" t="s">
+      <c r="H87" t="s">
         <v>272</v>
       </c>
-      <c r="Y87" t="s">
+      <c r="Z87" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="88">
-      <c r="G88" t="s">
+      <c r="H88" t="s">
         <v>523</v>
       </c>
-      <c r="Y88" t="s">
+      <c r="Z88" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="89">
-      <c r="G89" t="s">
+      <c r="H89" t="s">
         <v>267</v>
       </c>
-      <c r="Y89" t="s">
+      <c r="Z89" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="90">
-      <c r="G90" t="s">
+      <c r="H90" t="s">
         <v>284</v>
       </c>
-      <c r="Y90" t="s">
+      <c r="Z90" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="91">
-      <c r="G91" t="s">
+      <c r="H91" t="s">
         <v>268</v>
       </c>
-      <c r="Y91" t="s">
+      <c r="Z91" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="92">
-      <c r="G92" t="s">
+      <c r="H92" t="s">
         <v>269</v>
       </c>
-      <c r="Y92" t="s">
+      <c r="Z92" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="93">
-      <c r="G93" t="s">
+      <c r="H93" t="s">
         <v>301</v>
       </c>
-      <c r="Y93" t="s">
+      <c r="Z93" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="94">
-      <c r="G94" t="s">
+      <c r="H94" t="s">
         <v>307</v>
       </c>
-      <c r="Y94" t="s">
+      <c r="Z94" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="95">
-      <c r="G95" t="s">
+      <c r="H95" t="s">
         <v>291</v>
       </c>
-      <c r="Y95" t="s">
+      <c r="Z95" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="96">
-      <c r="G96" t="s">
+      <c r="H96" t="s">
         <v>336</v>
       </c>
-      <c r="Y96" t="s">
+      <c r="Z96" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="97">
-      <c r="G97" t="s">
+      <c r="H97" t="s">
         <v>273</v>
       </c>
-      <c r="Y97" t="s">
+      <c r="Z97" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="98">
-      <c r="G98" t="s">
+      <c r="H98" t="s">
         <v>274</v>
       </c>
-      <c r="Y98" t="s">
+      <c r="Z98" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="99">
-      <c r="Y99" t="s">
+      <c r="Z99" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="100">
-      <c r="Y100" t="s">
+      <c r="Z100" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="101">
-      <c r="Y101" t="s">
+      <c r="Z101" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="102">
-      <c r="Y102" t="s">
+      <c r="Z102" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="103">
-      <c r="Y103" t="s">
+      <c r="Z103" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="104">
-      <c r="Y104" t="s">
+      <c r="Z104" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="105">
-      <c r="Y105" t="s">
+      <c r="Z105" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="106">
-      <c r="Y106" t="s">
+      <c r="Z106" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="107">
-      <c r="Y107" t="s">
+      <c r="Z107" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="Z108" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="108">
-      <c r="Y108" t="s">
+    <row r="109">
+      <c r="Z109" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="109">
-      <c r="Y109" t="s">
+    <row r="110">
+      <c r="Z110" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="110">
-      <c r="Y110" t="s">
+    <row r="111">
+      <c r="Z111" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="111">
-      <c r="Y111" t="s">
+    <row r="112">
+      <c r="Z112" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="112">
-      <c r="Y112" t="s">
+    <row r="113">
+      <c r="Z113" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="113">
-      <c r="Y113" t="s">
+    <row r="114">
+      <c r="Z114" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="114">
-      <c r="Y114" t="s">
+    <row r="115">
+      <c r="Z115" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="115">
-      <c r="Y115" t="s">
+    <row r="116">
+      <c r="Z116" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="116">
-      <c r="Y116" t="s">
+    <row r="117">
+      <c r="Z117" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="117">
-      <c r="Y117" t="s">
+    <row r="118">
+      <c r="Z118" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="118">
-      <c r="Y118" t="s">
+    <row r="119">
+      <c r="Z119" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="119">
-      <c r="Y119" t="s">
+    <row r="120">
+      <c r="Z120" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="120">
-      <c r="Y120" t="s">
+    <row r="121">
+      <c r="Z121" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="121">
-      <c r="Y121" t="s">
+    <row r="122">
+      <c r="Z122" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="122">
-      <c r="Y122" t="s">
+    <row r="123">
+      <c r="Z123" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="123">
-      <c r="Y123" t="s">
+    <row r="124">
+      <c r="Z124" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="124">
-      <c r="Y124" t="s">
+    <row r="125">
+      <c r="Z125" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="125">
-      <c r="Y125" t="s">
+    <row r="126">
+      <c r="Z126" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="126">
-      <c r="Y126" t="s">
+    <row r="127">
+      <c r="Z127" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="127">
-      <c r="Y127" t="s">
+    <row r="128">
+      <c r="Z128" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="128">
-      <c r="Y128" t="s">
+    <row r="129">
+      <c r="Z129" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="129">
-      <c r="Y129" t="s">
+    <row r="130">
+      <c r="Z130" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="130">
-      <c r="Y130" t="s">
+    <row r="131">
+      <c r="Z131" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="131">
-      <c r="Y131" t="s">
+    <row r="132">
+      <c r="Z132" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="132">
-      <c r="Y132" t="s">
+    <row r="133">
+      <c r="Z133" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="133">
-      <c r="Y133" t="s">
+    <row r="134">
+      <c r="Z134" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="134">
-      <c r="Y134" t="s">
+    <row r="135">
+      <c r="Z135" t="s">
         <v>166</v>
       </c>
     </row>

--- a/examples/mouse/artifact/script/ScreenClick.xlsx
+++ b/examples/mouse/artifact/script/ScreenClick.xlsx
@@ -20,7 +20,7 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="base">'#system'!$F$2:$F$40</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -28,7 +28,7 @@
     <definedName name="excel">'#system'!$I$2:$I$14</definedName>
     <definedName name="external">'#system'!$J$2:$J$5</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
-    <definedName name="io">'#system'!$L$2:$L$29</definedName>
+    <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3471" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4596" uniqueCount="601">
   <si>
     <t>description</t>
   </si>
@@ -1864,6 +1864,21 @@
   </si>
   <si>
     <t>assertTextNotContain(locator,text)</t>
+  </si>
+  <si>
+    <t>clear(variables)</t>
+  </si>
+  <si>
+    <t>saveMatches(var,path,fileFilter,textFilter)</t>
+  </si>
+  <si>
+    <t>clearVariables(variables)</t>
+  </si>
+  <si>
+    <t>assertPath(path)</t>
+  </si>
+  <si>
+    <t>assertAttributeContain(locator,attrName,contains)</t>
   </si>
 </sst>
 </file>
@@ -1871,7 +1886,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="92" x14ac:knownFonts="1">
+  <fonts count="124" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2461,8 +2476,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="139">
+  <fills count="193">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3246,8 +3463,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="163">
+  <borders count="227">
     <border>
       <left/>
       <right/>
@@ -4915,6 +5438,658 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4922,7 +6097,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="150">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5247,52 +6422,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="75" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="114" borderId="138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="138" fillId="114" fontId="76" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="77" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="117" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="117" fontId="78" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="120" borderId="146" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="146" fillId="120" fontId="79" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="123" borderId="150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="150" fillId="123" fontId="80" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="81" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="126" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="126" fontId="82" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="83" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="129" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="154" fillId="129" fontId="84" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="120" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="120" fontId="85" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="132" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="162" fillId="132" fontId="86" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="132" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="162" fillId="132" fontId="87" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="88" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="89" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="89" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="90" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="138" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="138" fontId="91" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="141" fontId="92" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="93" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="174" fillId="144" fontId="94" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="178" fillId="147" fontId="95" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="182" fillId="150" fontId="96" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="97" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="153" fontId="98" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="99" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="156" fontId="100" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="190" fillId="147" fontId="101" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="194" fillId="159" fontId="102" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="194" fillId="159" fontId="103" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="104" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="162" fontId="105" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="106" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="165" fontId="107" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="168" borderId="202" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="171" borderId="206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="174" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="177" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="180" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="183" borderId="218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="174" borderId="222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="186" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="186" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5933,7 +7204,7 @@
         <v>346</v>
       </c>
       <c r="L4" t="s">
-        <v>234</v>
+        <v>599</v>
       </c>
       <c r="M4" t="s">
         <v>331</v>
@@ -5969,7 +7240,7 @@
         <v>404</v>
       </c>
       <c r="Z4" t="s">
-        <v>349</v>
+        <v>600</v>
       </c>
       <c r="AA4" t="s">
         <v>169</v>
@@ -6016,7 +7287,7 @@
         <v>347</v>
       </c>
       <c r="L5" t="s">
-        <v>457</v>
+        <v>234</v>
       </c>
       <c r="N5" t="s">
         <v>85</v>
@@ -6087,7 +7358,7 @@
         <v>344</v>
       </c>
       <c r="L6" t="s">
-        <v>70</v>
+        <v>457</v>
       </c>
       <c r="N6" t="s">
         <v>28</v>
@@ -6149,7 +7420,7 @@
         <v>530</v>
       </c>
       <c r="L7" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="N7" t="s">
         <v>311</v>
@@ -6208,7 +7479,7 @@
         <v>324</v>
       </c>
       <c r="L8" t="s">
-        <v>480</v>
+        <v>16</v>
       </c>
       <c r="N8" t="s">
         <v>33</v>
@@ -6264,7 +7535,7 @@
         <v>325</v>
       </c>
       <c r="L9" t="s">
-        <v>78</v>
+        <v>480</v>
       </c>
       <c r="N9" t="s">
         <v>34</v>
@@ -6308,7 +7579,7 @@
         <v>447</v>
       </c>
       <c r="L10" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="N10" t="s">
         <v>35</v>
@@ -6349,7 +7620,7 @@
         <v>318</v>
       </c>
       <c r="L11" t="s">
-        <v>481</v>
+        <v>37</v>
       </c>
       <c r="N11" t="s">
         <v>466</v>
@@ -6387,7 +7658,7 @@
         <v>319</v>
       </c>
       <c r="L12" t="s">
-        <v>385</v>
+        <v>481</v>
       </c>
       <c r="N12" t="s">
         <v>532</v>
@@ -6425,7 +7696,7 @@
         <v>320</v>
       </c>
       <c r="L13" t="s">
-        <v>17</v>
+        <v>385</v>
       </c>
       <c r="N13" t="s">
         <v>431</v>
@@ -6460,7 +7731,7 @@
         <v>321</v>
       </c>
       <c r="L14" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="N14" t="s">
         <v>467</v>
@@ -6492,7 +7763,7 @@
         <v>260</v>
       </c>
       <c r="L15" t="s">
-        <v>482</v>
+        <v>41</v>
       </c>
       <c r="N15" t="s">
         <v>38</v>
@@ -6524,7 +7795,7 @@
         <v>261</v>
       </c>
       <c r="L16" t="s">
-        <v>79</v>
+        <v>482</v>
       </c>
       <c r="N16" t="s">
         <v>573</v>
@@ -6556,7 +7827,7 @@
         <v>313</v>
       </c>
       <c r="L17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N17" t="s">
         <v>39</v>
@@ -6582,7 +7853,7 @@
         <v>87</v>
       </c>
       <c r="L18" t="s">
-        <v>458</v>
+        <v>80</v>
       </c>
       <c r="N18" t="s">
         <v>42</v>
@@ -6599,13 +7870,13 @@
         <v>235</v>
       </c>
       <c r="F19" t="s">
-        <v>58</v>
+        <v>598</v>
       </c>
       <c r="H19" t="s">
         <v>88</v>
       </c>
       <c r="L19" t="s">
-        <v>81</v>
+        <v>458</v>
       </c>
       <c r="Z19" t="s">
         <v>103</v>
@@ -6619,13 +7890,13 @@
         <v>51</v>
       </c>
       <c r="F20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H20" t="s">
         <v>292</v>
       </c>
       <c r="L20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Z20" t="s">
         <v>104</v>
@@ -6639,13 +7910,13 @@
         <v>391</v>
       </c>
       <c r="F21" t="s">
-        <v>252</v>
+        <v>59</v>
       </c>
       <c r="H21" t="s">
         <v>293</v>
       </c>
       <c r="L21" t="s">
-        <v>375</v>
+        <v>82</v>
       </c>
       <c r="Z21" t="s">
         <v>105</v>
@@ -6659,13 +7930,13 @@
         <v>407</v>
       </c>
       <c r="F22" t="s">
-        <v>533</v>
+        <v>252</v>
       </c>
       <c r="H22" t="s">
         <v>294</v>
       </c>
       <c r="L22" t="s">
-        <v>465</v>
+        <v>597</v>
       </c>
       <c r="Z22" t="s">
         <v>489</v>
@@ -6679,13 +7950,13 @@
         <v>408</v>
       </c>
       <c r="F23" t="s">
-        <v>60</v>
+        <v>533</v>
       </c>
       <c r="H23" t="s">
         <v>295</v>
       </c>
       <c r="L23" t="s">
-        <v>43</v>
+        <v>465</v>
       </c>
       <c r="Z23" t="s">
         <v>106</v>
@@ -6699,13 +7970,13 @@
         <v>352</v>
       </c>
       <c r="F24" t="s">
-        <v>317</v>
+        <v>60</v>
       </c>
       <c r="H24" t="s">
         <v>286</v>
       </c>
       <c r="L24" t="s">
-        <v>387</v>
+        <v>43</v>
       </c>
       <c r="Z24" t="s">
         <v>584</v>
@@ -6719,13 +7990,13 @@
         <v>392</v>
       </c>
       <c r="F25" t="s">
-        <v>61</v>
+        <v>317</v>
       </c>
       <c r="H25" t="s">
         <v>275</v>
       </c>
       <c r="L25" t="s">
-        <v>519</v>
+        <v>387</v>
       </c>
       <c r="Z25" t="s">
         <v>107</v>
@@ -6739,13 +8010,13 @@
         <v>52</v>
       </c>
       <c r="F26" t="s">
-        <v>444</v>
+        <v>61</v>
       </c>
       <c r="H26" t="s">
         <v>74</v>
       </c>
       <c r="L26" t="s">
-        <v>83</v>
+        <v>519</v>
       </c>
       <c r="Z26" t="s">
         <v>108</v>
@@ -6759,13 +8030,13 @@
         <v>53</v>
       </c>
       <c r="F27" t="s">
-        <v>221</v>
+        <v>444</v>
       </c>
       <c r="H27" t="s">
         <v>278</v>
       </c>
       <c r="L27" t="s">
-        <v>429</v>
+        <v>83</v>
       </c>
       <c r="Z27" t="s">
         <v>109</v>
@@ -6779,13 +8050,13 @@
         <v>54</v>
       </c>
       <c r="F28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H28" t="s">
         <v>262</v>
       </c>
       <c r="L28" t="s">
-        <v>44</v>
+        <v>429</v>
       </c>
       <c r="Z28" t="s">
         <v>110</v>
@@ -6796,13 +8067,13 @@
         <v>55</v>
       </c>
       <c r="F29" t="s">
-        <v>463</v>
+        <v>222</v>
       </c>
       <c r="H29" t="s">
         <v>279</v>
       </c>
       <c r="L29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Z29" t="s">
         <v>323</v>
@@ -6813,10 +8084,13 @@
         <v>409</v>
       </c>
       <c r="F30" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H30" t="s">
         <v>280</v>
+      </c>
+      <c r="L30" t="s">
+        <v>45</v>
       </c>
       <c r="Z30" t="s">
         <v>111</v>
@@ -6827,7 +8101,7 @@
         <v>223</v>
       </c>
       <c r="F31" t="s">
-        <v>411</v>
+        <v>464</v>
       </c>
       <c r="H31" t="s">
         <v>212</v>
@@ -6838,7 +8112,7 @@
     </row>
     <row r="32">
       <c r="F32" t="s">
-        <v>62</v>
+        <v>411</v>
       </c>
       <c r="H32" t="s">
         <v>271</v>
@@ -6849,7 +8123,7 @@
     </row>
     <row r="33">
       <c r="F33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H33" t="s">
         <v>281</v>
@@ -6860,7 +8134,7 @@
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H34" t="s">
         <v>504</v>
@@ -6871,7 +8145,7 @@
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H35" t="s">
         <v>256</v>
@@ -6882,7 +8156,7 @@
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H36" t="s">
         <v>326</v>
@@ -6893,7 +8167,7 @@
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H37" t="s">
         <v>303</v>
@@ -6904,7 +8178,7 @@
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H38" t="s">
         <v>257</v>
@@ -6915,7 +8189,7 @@
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H39" t="s">
         <v>304</v>
@@ -6925,6 +8199,9 @@
       </c>
     </row>
     <row r="40">
+      <c r="F40" t="s">
+        <v>69</v>
+      </c>
       <c r="H40" t="s">
         <v>263</v>
       </c>

--- a/examples/mouse/artifact/script/ScreenClick.xlsx
+++ b/examples/mouse/artifact/script/ScreenClick.xlsx
@@ -20,13 +20,13 @@
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="base">'#system'!$F$2:$F$40</definedName>
+    <definedName name="base">'#system'!$F$2:$F$39</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$14</definedName>
-    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
@@ -47,7 +47,7 @@
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$137</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4596" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5161" uniqueCount="604">
   <si>
     <t>description</t>
   </si>
@@ -1879,6 +1879,15 @@
   </si>
   <si>
     <t>assertAttributeContain(locator,attrName,contains)</t>
+  </si>
+  <si>
+    <t>terminate(programName)</t>
+  </si>
+  <si>
+    <t>saveSelectedText(var,locator)</t>
+  </si>
+  <si>
+    <t>saveSelectedValue(var,locator)</t>
   </si>
 </sst>
 </file>
@@ -1886,7 +1895,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="124" x14ac:knownFonts="1">
+  <fonts count="140" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2678,8 +2687,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="193">
+  <fills count="220">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3769,8 +3879,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="227">
+  <borders count="259">
     <border>
       <left/>
       <right/>
@@ -6090,6 +6353,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -6097,7 +6686,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="166">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -6518,52 +7107,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="165" fontId="107" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="108" fillId="168" borderId="202" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="202" fillId="168" fontId="108" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="109" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="110" fillId="171" borderId="206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="206" fillId="171" fontId="110" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="111" fillId="174" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="210" fillId="174" fontId="111" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="112" fillId="177" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="214" fillId="177" fontId="112" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="113" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="114" fillId="180" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="180" fontId="114" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="115" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="116" fillId="183" borderId="218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="218" fillId="183" fontId="116" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="117" fillId="174" borderId="222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="222" fillId="174" fontId="117" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="118" fillId="186" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="186" fontId="118" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="119" fillId="186" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="186" fontId="119" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="120" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="120" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="121" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="189" fontId="121" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="122" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="122" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="123" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="192" fontId="123" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="195" borderId="234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="198" borderId="238" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="201" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="204" borderId="246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="207" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="210" borderId="250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="201" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="213" borderId="258" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="213" borderId="258" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="216" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="219" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6888,7 +7525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF135"/>
+  <dimension ref="A1:AF137"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -7354,6 +7991,9 @@
       <c r="I6" t="s">
         <v>443</v>
       </c>
+      <c r="J6" t="s">
+        <v>601</v>
+      </c>
       <c r="K6" t="s">
         <v>344</v>
       </c>
@@ -7870,7 +8510,7 @@
         <v>235</v>
       </c>
       <c r="F19" t="s">
-        <v>598</v>
+        <v>58</v>
       </c>
       <c r="H19" t="s">
         <v>88</v>
@@ -7890,7 +8530,7 @@
         <v>51</v>
       </c>
       <c r="F20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H20" t="s">
         <v>292</v>
@@ -7910,7 +8550,7 @@
         <v>391</v>
       </c>
       <c r="F21" t="s">
-        <v>59</v>
+        <v>252</v>
       </c>
       <c r="H21" t="s">
         <v>293</v>
@@ -7930,7 +8570,7 @@
         <v>407</v>
       </c>
       <c r="F22" t="s">
-        <v>252</v>
+        <v>533</v>
       </c>
       <c r="H22" t="s">
         <v>294</v>
@@ -7950,7 +8590,7 @@
         <v>408</v>
       </c>
       <c r="F23" t="s">
-        <v>533</v>
+        <v>60</v>
       </c>
       <c r="H23" t="s">
         <v>295</v>
@@ -7970,7 +8610,7 @@
         <v>352</v>
       </c>
       <c r="F24" t="s">
-        <v>60</v>
+        <v>317</v>
       </c>
       <c r="H24" t="s">
         <v>286</v>
@@ -7990,7 +8630,7 @@
         <v>392</v>
       </c>
       <c r="F25" t="s">
-        <v>317</v>
+        <v>61</v>
       </c>
       <c r="H25" t="s">
         <v>275</v>
@@ -8010,7 +8650,7 @@
         <v>52</v>
       </c>
       <c r="F26" t="s">
-        <v>61</v>
+        <v>444</v>
       </c>
       <c r="H26" t="s">
         <v>74</v>
@@ -8030,7 +8670,7 @@
         <v>53</v>
       </c>
       <c r="F27" t="s">
-        <v>444</v>
+        <v>221</v>
       </c>
       <c r="H27" t="s">
         <v>278</v>
@@ -8050,7 +8690,7 @@
         <v>54</v>
       </c>
       <c r="F28" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H28" t="s">
         <v>262</v>
@@ -8067,7 +8707,7 @@
         <v>55</v>
       </c>
       <c r="F29" t="s">
-        <v>222</v>
+        <v>463</v>
       </c>
       <c r="H29" t="s">
         <v>279</v>
@@ -8084,7 +8724,7 @@
         <v>409</v>
       </c>
       <c r="F30" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H30" t="s">
         <v>280</v>
@@ -8101,7 +8741,7 @@
         <v>223</v>
       </c>
       <c r="F31" t="s">
-        <v>464</v>
+        <v>411</v>
       </c>
       <c r="H31" t="s">
         <v>212</v>
@@ -8112,7 +8752,7 @@
     </row>
     <row r="32">
       <c r="F32" t="s">
-        <v>411</v>
+        <v>62</v>
       </c>
       <c r="H32" t="s">
         <v>271</v>
@@ -8123,7 +8763,7 @@
     </row>
     <row r="33">
       <c r="F33" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H33" t="s">
         <v>281</v>
@@ -8134,7 +8774,7 @@
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H34" t="s">
         <v>504</v>
@@ -8145,7 +8785,7 @@
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H35" t="s">
         <v>256</v>
@@ -8156,7 +8796,7 @@
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H36" t="s">
         <v>326</v>
@@ -8167,7 +8807,7 @@
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H37" t="s">
         <v>303</v>
@@ -8178,7 +8818,7 @@
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H38" t="s">
         <v>257</v>
@@ -8189,7 +8829,7 @@
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H39" t="s">
         <v>304</v>
@@ -8199,9 +8839,6 @@
       </c>
     </row>
     <row r="40">
-      <c r="F40" t="s">
-        <v>69</v>
-      </c>
       <c r="H40" t="s">
         <v>263</v>
       </c>
@@ -8675,186 +9312,196 @@
     </row>
     <row r="99">
       <c r="Z99" t="s">
-        <v>438</v>
+        <v>602</v>
       </c>
     </row>
     <row r="100">
       <c r="Z100" t="s">
-        <v>200</v>
+        <v>603</v>
       </c>
     </row>
     <row r="101">
       <c r="Z101" t="s">
-        <v>201</v>
+        <v>438</v>
       </c>
     </row>
     <row r="102">
       <c r="Z102" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="103">
       <c r="Z103" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="104">
       <c r="Z104" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
     </row>
     <row r="105">
       <c r="Z105" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="106">
       <c r="Z106" t="s">
-        <v>493</v>
+        <v>219</v>
       </c>
     </row>
     <row r="107">
       <c r="Z107" t="s">
-        <v>592</v>
+        <v>204</v>
       </c>
     </row>
     <row r="108">
       <c r="Z108" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
     </row>
     <row r="109">
       <c r="Z109" t="s">
-        <v>145</v>
+        <v>592</v>
       </c>
     </row>
     <row r="110">
       <c r="Z110" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="111">
       <c r="Z111" t="s">
-        <v>378</v>
+        <v>145</v>
       </c>
     </row>
     <row r="112">
       <c r="Z112" t="s">
-        <v>146</v>
+        <v>518</v>
       </c>
     </row>
     <row r="113">
       <c r="Z113" t="s">
-        <v>147</v>
+        <v>378</v>
       </c>
     </row>
     <row r="114">
       <c r="Z114" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="115">
       <c r="Z115" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="116">
       <c r="Z116" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="117">
       <c r="Z117" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="118">
       <c r="Z118" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="119">
       <c r="Z119" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="120">
       <c r="Z120" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="121">
       <c r="Z121" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="122">
       <c r="Z122" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="123">
       <c r="Z123" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="124">
       <c r="Z124" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="125">
       <c r="Z125" t="s">
-        <v>439</v>
+        <v>157</v>
       </c>
     </row>
     <row r="126">
       <c r="Z126" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="127">
       <c r="Z127" t="s">
-        <v>586</v>
+        <v>439</v>
       </c>
     </row>
     <row r="128">
       <c r="Z128" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="129">
       <c r="Z129" t="s">
-        <v>161</v>
+        <v>586</v>
       </c>
     </row>
     <row r="130">
       <c r="Z130" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="131">
       <c r="Z131" t="s">
-        <v>46</v>
+        <v>161</v>
       </c>
     </row>
     <row r="132">
       <c r="Z132" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="133">
       <c r="Z133" t="s">
-        <v>164</v>
+        <v>46</v>
       </c>
     </row>
     <row r="134">
       <c r="Z134" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="135">
       <c r="Z135" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="Z136" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="Z137" t="s">
         <v>166</v>
       </c>
     </row>

--- a/examples/mouse/artifact/script/ScreenClick.xlsx
+++ b/examples/mouse/artifact/script/ScreenClick.xlsx
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5161" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5726" uniqueCount="604">
   <si>
     <t>description</t>
   </si>
@@ -1895,7 +1895,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="140" x14ac:knownFonts="1">
+  <fonts count="156" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2788,8 +2788,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="220">
+  <fills count="247">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4032,8 +4133,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="259">
+  <borders count="291">
     <border>
       <left/>
       <right/>
@@ -4070,6 +4324,332 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -6686,7 +7266,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="182">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -7155,52 +7735,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="192" fontId="123" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="124" fillId="195" borderId="234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="234" fillId="195" fontId="124" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="125" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="126" fillId="198" borderId="238" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="238" fillId="198" fontId="126" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="127" fillId="201" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="242" fillId="201" fontId="127" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="128" fillId="204" borderId="246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="246" fillId="204" fontId="128" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="129" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="129" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="130" fillId="207" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="207" fontId="130" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="131" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="132" fillId="210" borderId="250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="250" fillId="210" fontId="132" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="133" fillId="201" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="201" fontId="133" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="134" fillId="213" borderId="258" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="258" fillId="213" fontId="134" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="135" fillId="213" borderId="258" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="258" fillId="213" fontId="135" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="136" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="204" fontId="136" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="137" fillId="216" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="216" fontId="137" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="138" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="204" fontId="138" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="139" fillId="219" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="219" fontId="139" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="222" borderId="266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="225" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="228" borderId="274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="231" borderId="278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="234" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="237" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="228" borderId="286" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="240" borderId="290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="240" borderId="290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="246" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/examples/mouse/artifact/script/ScreenClick.xlsx
+++ b/examples/mouse/artifact/script/ScreenClick.xlsx
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5726" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6291" uniqueCount="604">
   <si>
     <t>description</t>
   </si>
@@ -1895,7 +1895,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="156" x14ac:knownFonts="1">
+  <fonts count="172" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2889,8 +2889,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="247">
+  <fills count="274">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4286,8 +4387,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="291">
+  <borders count="323">
     <border>
       <left/>
       <right/>
@@ -4324,6 +4578,332 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -7266,7 +7846,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="182">
+  <cellXfs count="198">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -7783,52 +8363,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="219" fontId="139" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="140" fillId="222" borderId="266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="266" fillId="222" fontId="140" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="141" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="141" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="142" fillId="225" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="270" fillId="225" fontId="142" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="143" fillId="228" borderId="274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="274" fillId="228" fontId="143" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="144" fillId="231" borderId="278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="278" fillId="231" fontId="144" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="145" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="146" fillId="234" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="234" fontId="146" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="147" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="148" fillId="237" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="237" fontId="148" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="149" fillId="228" borderId="286" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="286" fillId="228" fontId="149" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="150" fillId="240" borderId="290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="290" fillId="240" fontId="150" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="151" fillId="240" borderId="290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="290" fillId="240" fontId="151" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="152" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="231" fontId="152" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="153" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="243" fontId="153" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="154" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="231" fontId="154" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="155" fillId="246" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="246" fontId="155" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="249" borderId="298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="252" borderId="302" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="255" borderId="306" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="258" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="261" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="264" borderId="314" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="255" borderId="318" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="267" borderId="322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="267" borderId="322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="270" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="273" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
